--- a/docs/post/Croqui_08_12_2021.xlsx
+++ b/docs/post/Croqui_08_12_2021.xlsx
@@ -30,25 +30,25 @@
     <t xml:space="preserve">row</t>
   </si>
   <si>
-    <t xml:space="preserve">40, 2, 48, 91, 109, 123, 106, 71, 85, 104, 80, 57, 27, 111, 49, 30, 20, 88, 79, 101, 72, 65, 22, 33, 38, 81, 12, 55, 11, 126, 76, 15, 97, 28, 32, 122, 67, 95, 24, 110, 92, 58, 129, 51, 77, 47, 78, 6, 94, 26, 44, 108, 21, 7, 4, 89, 62, 118, 43, 46, 116, 41, 60, 124, 1, 102, 61, 52, 18, 13, 25, 50, 19, 96, 69, 105, 37, 54, 117, 115, 31, 45, 121, 98, 114, 5, 70, 64, 73, 42, 16, 125, 53, 34, 63, 86, 74, 83, 8, 35, 82, 9, 29, 120, 113, 130, 127, 119, 87, 100, 17, 90, 39, 107, 66, 112, 10, 99, 75, 23, 36, 68, 59, 93, 14, 128, 103, 84, 3, 56</t>
+    <t xml:space="preserve">51, 36, 104, 12, 124, 47, 39, 105, 21, 118, 115, 127, 19, 63, 111, 82, 5, 61, 92, 68, 8, 67, 50, 13, 99, 75, 1, 84, 79, 23, 55, 129, 16, 78, 88, 116, 2, 101, 102, 71, 34, 25, 43, 121, 91, 38, 17, 45, 94, 93, 72, 59, 73, 74, 123, 14, 15, 9, 76, 86, 56, 49, 32, 80, 26, 18, 27, 122, 31, 103, 22, 65, 4, 42, 35, 62, 126, 46, 81, 54, 6, 64, 40, 52, 107, 120, 108, 95, 60, 112, 109, 106, 11, 83, 10, 30, 77, 37, 24, 29, 48, 117, 96, 85, 119, 114, 41, 3, 113, 89, 125, 70, 100, 58, 57, 110, 130, 33, 53, 69, 98, 44, 128, 90, 28, 97, 20, 7, 87, 66</t>
   </si>
   <si>
-    <t xml:space="preserve">66, 16, 24, 86, 40, 68, 128, 64, 96, 67, 122, 109, 54, 7, 34, 62, 49, 23, 92, 37, 75, 70, 53, 101, 56, 21, 103, 85, 18, 73, 27, 116, 100, 112, 63, 76, 14, 121, 78, 107, 118, 35, 130, 13, 22, 9, 114, 97, 10, 90, 12, 94, 120, 17, 79, 74, 126, 123, 51, 43, 41, 108, 89, 26, 119, 58, 33, 99, 8, 110, 30, 36, 45, 32, 39, 44, 105, 47, 25, 91, 50, 31, 72, 106, 15, 52, 20, 115, 46, 42, 29, 69, 57, 19, 28, 124, 80, 88, 2, 71, 1, 3, 38, 95, 84, 5, 129, 11, 111, 81, 59, 98, 55, 87, 6, 93, 61, 82, 117, 77, 113, 48, 127, 125, 104, 83, 4, 65, 102, 60</t>
+    <t xml:space="preserve">24, 130, 128, 108, 70, 19, 26, 64, 109, 114, 5, 126, 69, 107, 46, 47, 67, 97, 58, 125, 90, 92, 124, 80, 7, 4, 44, 32, 104, 65, 2, 82, 78, 57, 77, 45, 11, 110, 54, 102, 73, 96, 8, 14, 23, 53, 60, 18, 39, 20, 55, 16, 50, 63, 61, 112, 35, 103, 30, 115, 49, 75, 91, 122, 29, 83, 89, 85, 48, 101, 99, 66, 21, 51, 84, 3, 28, 100, 94, 34, 12, 87, 25, 95, 15, 17, 27, 68, 106, 56, 31, 33, 6, 1, 13, 105, 121, 36, 127, 116, 43, 9, 118, 10, 72, 93, 88, 117, 59, 123, 52, 74, 81, 41, 79, 129, 37, 98, 86, 119, 40, 113, 42, 111, 62, 22, 71, 38, 120, 76</t>
   </si>
   <si>
-    <t xml:space="preserve">97, 36, 9, 20, 94, 32, 64, 125, 116, 88, 25, 54, 113, 117, 121, 82, 38, 104, 5, 100, 12, 45, 92, 66, 3, 79, 65, 120, 37, 7, 21, 107, 1, 46, 98, 96, 43, 70, 2, 55, 27, 83, 57, 119, 74, 28, 39, 24, 84, 91, 118, 26, 51, 52, 122, 103, 127, 130, 87, 68, 40, 16, 53, 56, 78, 115, 14, 112, 69, 89, 108, 8, 80, 23, 73, 75, 60, 123, 18, 85, 67, 10, 126, 49, 61, 41, 33, 93, 102, 90, 62, 30, 101, 42, 128, 44, 95, 99, 47, 29, 34, 11, 35, 63, 106, 31, 114, 48, 86, 19, 129, 71, 15, 17, 110, 58, 6, 22, 4, 109, 13, 81, 50, 124, 77, 111, 59, 76, 105, 72</t>
+    <t xml:space="preserve">90, 24, 115, 75, 103, 35, 60, 2, 63, 42, 119, 95, 11, 112, 79, 62, 49, 73, 57, 109, 41, 93, 89, 113, 7, 12, 130, 101, 64, 17, 9, 99, 15, 68, 96, 43, 105, 54, 76, 100, 10, 92, 36, 107, 67, 14, 3, 80, 104, 123, 52, 78, 111, 30, 44, 88, 91, 50, 69, 26, 110, 22, 31, 32, 39, 29, 126, 56, 53, 97, 23, 21, 59, 5, 83, 102, 8, 55, 72, 20, 40, 27, 74, 58, 127, 4, 128, 45, 71, 19, 124, 118, 47, 25, 48, 46, 85, 125, 122, 77, 87, 6, 61, 116, 82, 34, 33, 70, 51, 66, 120, 13, 98, 114, 129, 28, 108, 16, 81, 121, 106, 84, 117, 37, 86, 18, 38, 65, 1, 94</t>
   </si>
   <si>
-    <t xml:space="preserve">15, 2, 66, 74, 91, 47, 99, 73, 21, 92, 22, 68, 61, 5, 18, 80, 11, 36, 3, 96, 87, 55, 125, 59, 28, 126, 1, 122, 79, 38, 78, 127, 85, 106, 34, 51, 76, 111, 31, 29, 12, 43, 113, 48, 89, 130, 44, 95, 123, 109, 35, 115, 108, 8, 6, 56, 124, 30, 49, 24, 17, 7, 52, 4, 102, 77, 121, 100, 45, 65, 107, 57, 110, 105, 64, 116, 33, 112, 117, 101, 86, 70, 54, 67, 50, 83, 62, 37, 81, 20, 39, 41, 40, 69, 27, 32, 88, 120, 63, 114, 75, 14, 97, 94, 90, 129, 9, 23, 103, 71, 118, 42, 119, 26, 16, 98, 19, 53, 13, 46, 25, 93, 10, 104, 60, 82, 58, 128, 84, 72</t>
+    <t xml:space="preserve">39, 48, 82, 3, 62, 11, 108, 79, 16, 109, 49, 40, 115, 21, 35, 123, 32, 85, 124, 29, 72, 64, 34, 110, 57, 28, 116, 59, 81, 76, 37, 93, 8, 60, 27, 117, 43, 67, 14, 19, 111, 98, 97, 78, 88, 15, 38, 1, 75, 65, 101, 10, 55, 86, 128, 107, 69, 25, 83, 31, 96, 66, 22, 102, 77, 71, 121, 56, 24, 119, 70, 51, 95, 5, 112, 104, 6, 74, 17, 52, 114, 105, 129, 130, 20, 41, 47, 7, 84, 12, 33, 2, 91, 18, 87, 113, 58, 13, 68, 99, 26, 44, 73, 126, 106, 36, 120, 53, 4, 118, 54, 100, 30, 23, 80, 92, 125, 46, 9, 94, 90, 122, 127, 42, 45, 61, 89, 50, 103, 63</t>
   </si>
   <si>
-    <t xml:space="preserve">108, 23, 59, 39, 40, 106, 38, 99, 101, 58, 14, 44, 7, 87, 125, 49, 104, 11, 5, 3, 109, 89, 113, 82, 119, 13, 77, 63, 88, 41, 71, 19, 128, 60, 27, 46, 90, 127, 61, 12, 9, 35, 94, 24, 120, 17, 85, 124, 36, 8, 91, 47, 92, 51, 57, 34, 116, 95, 10, 67, 111, 102, 68, 129, 66, 1, 21, 97, 117, 28, 110, 81, 50, 122, 15, 107, 30, 29, 45, 103, 93, 84, 79, 83, 64, 80, 4, 22, 43, 72, 96, 55, 112, 62, 26, 48, 86, 118, 70, 31, 20, 115, 16, 69, 98, 53, 78, 25, 126, 33, 114, 37, 32, 75, 123, 52, 18, 121, 2, 42, 54, 74, 65, 56, 130, 73, 6, 100, 76</t>
+    <t xml:space="preserve">95, 13, 94, 1, 49, 125, 59, 119, 126, 117, 40, 50, 62, 85, 121, 21, 127, 122, 124, 37, 48, 16, 75, 64, 39, 90, 32, 25, 57, 34, 9, 22, 97, 55, 26, 52, 66, 114, 7, 106, 78, 110, 68, 116, 120, 29, 41, 12, 15, 107, 128, 56, 67, 28, 115, 45, 76, 70, 17, 36, 111, 92, 18, 98, 20, 11, 103, 109, 72, 101, 74, 27, 93, 96, 88, 54, 24, 129, 35, 10, 102, 60, 47, 53, 130, 79, 3, 6, 113, 112, 65, 31, 30, 69, 99, 63, 43, 84, 38, 86, 44, 87, 42, 108, 8, 51, 118, 83, 71, 81, 4, 23, 46, 61, 19, 123, 104, 2, 80, 82, 100, 91, 73, 77, 89, 5, 33, 58, 14</t>
   </si>
   <si>
-    <t xml:space="preserve">50, 84, 43, 97, 51, 5, 19, 32, 124, 107, 62, 71, 77, 45, 63, 102, 96, 13, 2, 53, 42, 72, 78, 94, 101, 18, 130, 46, 37, 23, 93, 39, 108, 16, 117, 125, 69, 21, 58, 38, 113, 56, 73, 11, 115, 10, 116, 121, 114, 41, 30, 74, 128, 86, 129, 81, 31, 29, 91, 79, 127, 25, 55, 80, 9, 61, 54, 8, 68, 27, 110, 99, 67, 57, 92, 49, 75, 15, 82, 24, 89, 87, 17, 4, 40, 44, 70, 60, 90, 34, 22, 52, 95, 112, 65, 35, 64, 28, 122, 120, 36, 103, 109, 59, 48, 100, 118, 123, 119, 14, 111, 66, 33, 88, 1, 85, 47, 6, 12, 76, 20, 7, 83, 104, 98, 126, 3, 26</t>
+    <t xml:space="preserve">51, 93, 42, 97, 8, 49, 83, 24, 47, 81, 87, 36, 50, 52, 10, 112, 25, 89, 69, 9, 43, 31, 108, 45, 37, 54, 124, 70, 21, 6, 86, 127, 57, 56, 125, 76, 91, 17, 4, 107, 126, 123, 32, 78, 79, 40, 65, 55, 103, 72, 94, 30, 96, 116, 63, 26, 73, 46, 15, 120, 38, 59, 95, 98, 67, 88, 129, 7, 61, 13, 53, 128, 75, 1, 130, 33, 28, 92, 18, 29, 19, 104, 23, 16, 110, 27, 85, 11, 68, 60, 80, 64, 82, 35, 90, 34, 102, 115, 84, 71, 99, 44, 39, 101, 66, 41, 58, 3, 74, 100, 122, 119, 2, 114, 77, 121, 5, 14, 62, 48, 118, 113, 12, 111, 20, 117, 109, 22</t>
   </si>
   <si>
-    <t xml:space="preserve">67, 127, 66, 27, 58, 33, 57, 28, 70, 55, 18, 16, 116, 13, 34, 94, 19, 123, 104, 65, 71, 79, 20, 30, 10, 29, 9, 50, 91, 26, 72, 51, 25, 46, 22, 68, 36, 113, 1, 100, 76, 102, 108, 124, 109, 62, 126, 81, 87, 12, 78, 89, 117, 112, 107, 74, 7, 99, 64, 69, 61, 38, 75, 15, 86, 103, 56, 90, 5, 114, 80, 6, 118, 63, 8, 85, 115, 35, 59, 53, 11, 110, 77, 37, 45, 73, 17, 125, 93, 31, 83, 2, 111, 4, 122, 52, 54, 21, 3, 121, 32, 120, 84, 14, 128, 119, 82, 92, 44, 88, 24, 23, 95</t>
+    <t xml:space="preserve">34, 21, 86, 15, 90, 117, 120, 5, 128, 125, 91, 103, 100, 108, 119, 78, 29, 55, 3, 123, 67, 31, 17, 19, 79, 71, 81, 85, 13, 10, 46, 37, 93, 126, 52, 20, 112, 88, 121, 94, 50, 76, 25, 127, 12, 113, 35, 109, 89, 36, 38, 27, 56, 70, 6, 84, 9, 51, 118, 18, 95, 73, 32, 122, 64, 110, 2, 82, 30, 111, 54, 59, 104, 107, 124, 58, 77, 65, 115, 75, 44, 114, 72, 66, 57, 24, 61, 83, 62, 69, 92, 28, 99, 53, 23, 87, 102, 22, 8, 116, 45, 63, 33, 4, 26, 7, 74, 68, 80, 11, 14, 1, 16</t>
   </si>
   <si>
     <t xml:space="preserve">Sobra de Mudas</t>
@@ -399,10 +399,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B2" t="n">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B3" t="n">
         <v>236</v>
@@ -427,10 +427,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="B4" t="n">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -441,7 +441,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="B5" t="n">
         <v>236</v>
@@ -455,10 +455,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B6" t="n">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -469,10 +469,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="B7" t="n">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -483,10 +483,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="B8" t="n">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -497,10 +497,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="B9" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
         <v>236</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B11" t="n">
         <v>236</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="B12" t="n">
         <v>236</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="B13" t="n">
         <v>236</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
         <v>236</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="B15" t="n">
         <v>236</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="B16" t="n">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -609,10 +609,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B17" t="n">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B18" t="n">
         <v>236</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B19" t="n">
         <v>236</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -665,10 +665,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="B21" t="n">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -679,10 +679,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>159</v>
+        <v>236</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B23" t="n">
         <v>236</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B24" t="n">
         <v>236</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B25" t="n">
         <v>236</v>
@@ -735,10 +735,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="B26" t="n">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B27" t="n">
         <v>236</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
         <v>236</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="B29" t="n">
         <v>236</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B30" t="n">
         <v>236</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="B31" t="n">
         <v>236</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B32" t="n">
         <v>236</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="B33" t="n">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -847,10 +847,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="B34" t="n">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="B35" t="n">
         <v>236</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="B36" t="n">
         <v>236</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B37" t="n">
         <v>236</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="B38" t="n">
         <v>236</v>
@@ -917,10 +917,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B39" t="n">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="B40" t="n">
         <v>236</v>
@@ -945,10 +945,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="B41" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="B42" t="n">
         <v>236</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="B43" t="n">
         <v>236</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="B44" t="n">
         <v>110</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="B45" t="n">
-        <v>236</v>
+        <v>116</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B46" t="n">
         <v>236</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B47" t="n">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="B48" t="n">
         <v>236</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B49" t="n">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="B51" t="n">
         <v>236</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="B52" t="n">
-        <v>218</v>
+        <v>159</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -1113,10 +1113,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="B54" t="n">
         <v>236</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B55" t="n">
         <v>236</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="B56" t="n">
         <v>236</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="B57" t="n">
         <v>236</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="B58" t="n">
         <v>236</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="B59" t="n">
         <v>236</v>
@@ -1211,10 +1211,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B60" t="n">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="B61" t="n">
         <v>236</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="B62" t="n">
         <v>236</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B63" t="n">
         <v>110</v>
@@ -1267,10 +1267,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B64" t="n">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -1281,10 +1281,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="B65" t="n">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B66" t="n">
         <v>236</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="B67" t="n">
         <v>236</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B68" t="n">
         <v>236</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="B69" t="n">
         <v>236</v>
@@ -1351,10 +1351,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B70" t="n">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="B71" t="n">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B72" t="n">
         <v>236</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B73" t="n">
         <v>236</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B74" t="n">
         <v>236</v>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="B75" t="n">
         <v>110</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="B76" t="n">
         <v>236</v>
@@ -1449,10 +1449,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="B77" t="n">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -1463,10 +1463,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="B78" t="n">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B79" t="n">
         <v>236</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B80" t="n">
         <v>236</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="B81" t="n">
         <v>236</v>
@@ -1519,10 +1519,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B82" t="n">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -1533,10 +1533,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B83" t="n">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -1547,10 +1547,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="B84" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
@@ -1561,10 +1561,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="B85" t="n">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="C85" t="n">
         <v>1</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B86" t="n">
         <v>236</v>
@@ -1589,10 +1589,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="B87" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="B88" t="n">
         <v>236</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B89" t="n">
         <v>236</v>
@@ -1631,10 +1631,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B90" t="n">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
@@ -1645,10 +1645,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="B91" t="n">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="B92" t="n">
         <v>236</v>
@@ -1673,10 +1673,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B93" t="n">
-        <v>236</v>
+        <v>88</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="B94" t="n">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="B95" t="n">
         <v>236</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="B96" t="n">
         <v>236</v>
@@ -1729,10 +1729,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="B97" t="n">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B98" t="n">
         <v>236</v>
@@ -1757,10 +1757,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="B99" t="n">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B100" t="n">
         <v>236</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B101" t="n">
         <v>236</v>
@@ -1799,10 +1799,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="B102" t="n">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="B103" t="n">
         <v>236</v>
@@ -1827,10 +1827,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="B104" t="n">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
@@ -1841,10 +1841,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="B105" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B106" t="n">
         <v>236</v>
@@ -1869,10 +1869,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B107" t="n">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
@@ -1883,10 +1883,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="B108" t="n">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="B109" t="n">
         <v>236</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="B110" t="n">
         <v>236</v>
@@ -1925,10 +1925,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B111" t="n">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="B112" t="n">
         <v>236</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B113" t="n">
         <v>236</v>
@@ -1967,10 +1967,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="B114" t="n">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="B115" t="n">
         <v>236</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B116" t="n">
         <v>236</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B117" t="n">
         <v>236</v>
@@ -2023,10 +2023,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="B118" t="n">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="C118" t="n">
         <v>1</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="B119" t="n">
         <v>236</v>
@@ -2051,10 +2051,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B120" t="n">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B121" t="n">
         <v>236</v>
@@ -2079,10 +2079,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="B122" t="n">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
@@ -2093,10 +2093,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B123" t="n">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="C123" t="n">
         <v>1</v>
@@ -2107,10 +2107,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="B124" t="n">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B125" t="n">
         <v>236</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B126" t="n">
         <v>236</v>
@@ -2149,10 +2149,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="B127" t="n">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
@@ -2163,10 +2163,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="B128" t="n">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="B129" t="n">
         <v>236</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="B130" t="n">
         <v>236</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B131" t="n">
         <v>236</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B132" t="n">
         <v>220</v>
@@ -2233,10 +2233,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="B133" t="n">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="C133" t="n">
         <v>2</v>
@@ -2247,10 +2247,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="B134" t="n">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="C134" t="n">
         <v>2</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="B135" t="n">
         <v>220</v>
@@ -2275,10 +2275,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B136" t="n">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="C136" t="n">
         <v>2</v>
@@ -2289,10 +2289,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="B137" t="n">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="C137" t="n">
         <v>2</v>
@@ -2303,10 +2303,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="B138" t="n">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="C138" t="n">
         <v>2</v>
@@ -2331,10 +2331,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B140" t="n">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="C140" t="n">
         <v>2</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="B141" t="n">
         <v>220</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="B142" t="n">
         <v>220</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B143" t="n">
         <v>220</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B144" t="n">
         <v>220</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B145" t="n">
         <v>220</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B146" t="n">
         <v>220</v>
@@ -2429,10 +2429,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B147" t="n">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="C147" t="n">
         <v>2</v>
@@ -2443,10 +2443,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B148" t="n">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="C148" t="n">
         <v>2</v>
@@ -2457,10 +2457,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="B149" t="n">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="C149" t="n">
         <v>2</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="B150" t="n">
         <v>220</v>
@@ -2485,10 +2485,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="B151" t="n">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="C151" t="n">
         <v>2</v>
@@ -2499,7 +2499,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B152" t="n">
         <v>220</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B153" t="n">
         <v>220</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="B154" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C154" t="n">
         <v>2</v>
@@ -2541,10 +2541,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B155" t="n">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="C155" t="n">
         <v>2</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="B156" t="n">
         <v>220</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B157" t="n">
         <v>220</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="B158" t="n">
         <v>202</v>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="B159" t="n">
         <v>220</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="B160" t="n">
         <v>220</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B161" t="n">
         <v>220</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B162" t="n">
         <v>220</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="B163" t="n">
         <v>220</v>
@@ -2667,10 +2667,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B164" t="n">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="C164" t="n">
         <v>2</v>
@@ -2681,7 +2681,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="B165" t="n">
         <v>220</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B166" t="n">
         <v>220</v>
@@ -2709,10 +2709,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B167" t="n">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="C167" t="n">
         <v>2</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B168" t="n">
         <v>220</v>
@@ -2737,10 +2737,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B169" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="C169" t="n">
         <v>2</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B170" t="n">
         <v>220</v>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B171" t="n">
         <v>220</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="B172" t="n">
         <v>220</v>
@@ -2793,10 +2793,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="B173" t="n">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="C173" t="n">
         <v>2</v>
@@ -2807,10 +2807,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="B174" t="n">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="C174" t="n">
         <v>2</v>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B175" t="n">
         <v>220</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B176" t="n">
         <v>220</v>
@@ -2849,10 +2849,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B177" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C177" t="n">
         <v>2</v>
@@ -2863,10 +2863,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="B178" t="n">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="C178" t="n">
         <v>2</v>
@@ -2877,10 +2877,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="B179" t="n">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="C179" t="n">
         <v>2</v>
@@ -2891,10 +2891,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B180" t="n">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="C180" t="n">
         <v>2</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="B181" t="n">
         <v>220</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B182" t="n">
         <v>220</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="B183" t="n">
         <v>220</v>
@@ -2947,10 +2947,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="B184" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C184" t="n">
         <v>2</v>
@@ -2961,7 +2961,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="B185" t="n">
         <v>220</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B186" t="n">
         <v>220</v>
@@ -2989,7 +2989,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="B187" t="n">
         <v>220</v>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="B188" t="n">
         <v>220</v>
@@ -3017,10 +3017,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B189" t="n">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="C189" t="n">
         <v>2</v>
@@ -3031,10 +3031,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B190" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C190" t="n">
         <v>2</v>
@@ -3045,10 +3045,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="B191" t="n">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="C191" t="n">
         <v>2</v>
@@ -3059,7 +3059,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B192" t="n">
         <v>94</v>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="B193" t="n">
         <v>220</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B194" t="n">
         <v>220</v>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="B195" t="n">
         <v>220</v>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="B196" t="n">
         <v>220</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="B197" t="n">
         <v>220</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="B198" t="n">
         <v>220</v>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B199" t="n">
         <v>220</v>
@@ -3171,10 +3171,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B200" t="n">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="C200" t="n">
         <v>2</v>
@@ -3185,10 +3185,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B201" t="n">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="C201" t="n">
         <v>2</v>
@@ -3199,10 +3199,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="B202" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C202" t="n">
         <v>2</v>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B203" t="n">
         <v>220</v>
@@ -3227,10 +3227,10 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B204" t="n">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="C204" t="n">
         <v>2</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B205" t="n">
         <v>220</v>
@@ -3255,10 +3255,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B206" t="n">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="C206" t="n">
         <v>2</v>
@@ -3269,10 +3269,10 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="B207" t="n">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="C207" t="n">
         <v>2</v>
@@ -3283,10 +3283,10 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="B208" t="n">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="C208" t="n">
         <v>2</v>
@@ -3297,10 +3297,10 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="B209" t="n">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="C209" t="n">
         <v>2</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="B210" t="n">
         <v>220</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="B211" t="n">
         <v>220</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B212" t="n">
         <v>220</v>
@@ -3353,10 +3353,10 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="B213" t="n">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="C213" t="n">
         <v>2</v>
@@ -3367,10 +3367,10 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="B214" t="n">
-        <v>143</v>
+        <v>220</v>
       </c>
       <c r="C214" t="n">
         <v>2</v>
@@ -3381,10 +3381,10 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B215" t="n">
-        <v>72</v>
+        <v>220</v>
       </c>
       <c r="C215" t="n">
         <v>2</v>
@@ -3409,7 +3409,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B217" t="n">
         <v>220</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B218" t="n">
         <v>220</v>
@@ -3437,10 +3437,10 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="B219" t="n">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="C219" t="n">
         <v>2</v>
@@ -3451,10 +3451,10 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="B220" t="n">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="C220" t="n">
         <v>2</v>
@@ -3465,10 +3465,10 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B221" t="n">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="C221" t="n">
         <v>2</v>
@@ -3479,10 +3479,10 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B222" t="n">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="C222" t="n">
         <v>2</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B223" t="n">
         <v>220</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="B224" t="n">
         <v>220</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B225" t="n">
         <v>220</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B226" t="n">
         <v>220</v>
@@ -3549,10 +3549,10 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B227" t="n">
-        <v>198</v>
+        <v>64</v>
       </c>
       <c r="C227" t="n">
         <v>2</v>
@@ -3563,10 +3563,10 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="B228" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="C228" t="n">
         <v>2</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="B229" t="n">
         <v>220</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="B230" t="n">
         <v>220</v>
@@ -3605,10 +3605,10 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="B231" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C231" t="n">
         <v>2</v>
@@ -3619,10 +3619,10 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B232" t="n">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="C232" t="n">
         <v>2</v>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B233" t="n">
         <v>220</v>
@@ -3647,10 +3647,10 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="B234" t="n">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="C234" t="n">
         <v>2</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="B235" t="n">
         <v>220</v>
@@ -3675,10 +3675,10 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B236" t="n">
-        <v>220</v>
+        <v>143</v>
       </c>
       <c r="C236" t="n">
         <v>2</v>
@@ -3689,7 +3689,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="B237" t="n">
         <v>220</v>
@@ -3703,10 +3703,10 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="B238" t="n">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="C238" t="n">
         <v>2</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="B239" t="n">
         <v>220</v>
@@ -3731,10 +3731,10 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="B240" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C240" t="n">
         <v>2</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="B241" t="n">
         <v>220</v>
@@ -3759,10 +3759,10 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B242" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C242" t="n">
         <v>2</v>
@@ -3773,10 +3773,10 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B243" t="n">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="C243" t="n">
         <v>2</v>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B244" t="n">
         <v>220</v>
@@ -3801,10 +3801,10 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="B245" t="n">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="C245" t="n">
         <v>2</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="B246" t="n">
         <v>220</v>
@@ -3829,10 +3829,10 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="B247" t="n">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="C247" t="n">
         <v>2</v>
@@ -3843,10 +3843,10 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B248" t="n">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C248" t="n">
         <v>2</v>
@@ -3857,10 +3857,10 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B249" t="n">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="C249" t="n">
         <v>2</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="B250" t="n">
         <v>220</v>
@@ -3885,7 +3885,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B251" t="n">
         <v>220</v>
@@ -3899,10 +3899,10 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="B252" t="n">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="C252" t="n">
         <v>2</v>
@@ -3913,10 +3913,10 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="B253" t="n">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="C253" t="n">
         <v>2</v>
@@ -3927,10 +3927,10 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="B254" t="n">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="C254" t="n">
         <v>2</v>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B255" t="n">
         <v>220</v>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="B256" t="n">
         <v>220</v>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B257" t="n">
         <v>220</v>
@@ -3983,10 +3983,10 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B258" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C258" t="n">
         <v>2</v>
@@ -3997,10 +3997,10 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B259" t="n">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="C259" t="n">
         <v>2</v>
@@ -4011,10 +4011,10 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="B260" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C260" t="n">
         <v>2</v>
@@ -4025,10 +4025,10 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B261" t="n">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="C261" t="n">
         <v>2</v>
@@ -4039,10 +4039,10 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B262" t="n">
-        <v>69</v>
+        <v>204</v>
       </c>
       <c r="C262" t="n">
         <v>3</v>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B263" t="n">
         <v>204</v>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="B264" t="n">
         <v>204</v>
@@ -4081,7 +4081,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B265" t="n">
         <v>204</v>
@@ -4095,10 +4095,10 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B266" t="n">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="C266" t="n">
         <v>3</v>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B267" t="n">
         <v>204</v>
@@ -4123,10 +4123,10 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B268" t="n">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="C268" t="n">
         <v>3</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="B269" t="n">
         <v>204</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="B270" t="n">
         <v>204</v>
@@ -4165,10 +4165,10 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="B271" t="n">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="C271" t="n">
         <v>3</v>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="B272" t="n">
         <v>204</v>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="B273" t="n">
         <v>204</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="B274" t="n">
         <v>204</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B275" t="n">
         <v>204</v>
@@ -4235,10 +4235,10 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="B276" t="n">
-        <v>84</v>
+        <v>204</v>
       </c>
       <c r="C276" t="n">
         <v>3</v>
@@ -4249,7 +4249,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B277" t="n">
         <v>204</v>
@@ -4263,10 +4263,10 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B278" t="n">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="C278" t="n">
         <v>3</v>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B279" t="n">
         <v>204</v>
@@ -4291,7 +4291,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B280" t="n">
         <v>204</v>
@@ -4305,10 +4305,10 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B281" t="n">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="C281" t="n">
         <v>3</v>
@@ -4319,10 +4319,10 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B282" t="n">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="C282" t="n">
         <v>3</v>
@@ -4333,10 +4333,10 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B283" t="n">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="C283" t="n">
         <v>3</v>
@@ -4347,7 +4347,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B284" t="n">
         <v>204</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="B285" t="n">
         <v>204</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B286" t="n">
         <v>204</v>
@@ -4389,7 +4389,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="B287" t="n">
         <v>204</v>
@@ -4403,10 +4403,10 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="B288" t="n">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="C288" t="n">
         <v>3</v>
@@ -4417,10 +4417,10 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B289" t="n">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="C289" t="n">
         <v>3</v>
@@ -4431,10 +4431,10 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B290" t="n">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="C290" t="n">
         <v>3</v>
@@ -4445,7 +4445,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B291" t="n">
         <v>204</v>
@@ -4459,7 +4459,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B292" t="n">
         <v>204</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B293" t="n">
         <v>204</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B294" t="n">
         <v>204</v>
@@ -4501,10 +4501,10 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B295" t="n">
-        <v>204</v>
+        <v>141</v>
       </c>
       <c r="C295" t="n">
         <v>3</v>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B296" t="n">
         <v>78</v>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="B297" t="n">
         <v>78</v>
@@ -4543,10 +4543,10 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="B298" t="n">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C298" t="n">
         <v>3</v>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B299" t="n">
         <v>204</v>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="B300" t="n">
         <v>204</v>
@@ -4585,10 +4585,10 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="B301" t="n">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="C301" t="n">
         <v>3</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B302" t="n">
         <v>204</v>
@@ -4613,7 +4613,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B303" t="n">
         <v>204</v>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B304" t="n">
         <v>204</v>
@@ -4641,7 +4641,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B305" t="n">
         <v>204</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B306" t="n">
         <v>204</v>
@@ -4669,7 +4669,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B307" t="n">
         <v>204</v>
@@ -4683,10 +4683,10 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B308" t="n">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="C308" t="n">
         <v>3</v>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="B309" t="n">
         <v>204</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B310" t="n">
         <v>204</v>
@@ -4725,7 +4725,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="B311" t="n">
         <v>204</v>
@@ -4739,7 +4739,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="B312" t="n">
         <v>204</v>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="B313" t="n">
         <v>204</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="B314" t="n">
         <v>204</v>
@@ -4781,10 +4781,10 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B315" t="n">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C315" t="n">
         <v>3</v>
@@ -4795,10 +4795,10 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="B316" t="n">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="C316" t="n">
         <v>3</v>
@@ -4809,10 +4809,10 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B317" t="n">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="C317" t="n">
         <v>3</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="B318" t="n">
         <v>204</v>
@@ -4837,10 +4837,10 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="B319" t="n">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="C319" t="n">
         <v>3</v>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B320" t="n">
         <v>204</v>
@@ -4865,10 +4865,10 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B321" t="n">
-        <v>141</v>
+        <v>204</v>
       </c>
       <c r="C321" t="n">
         <v>3</v>
@@ -4879,10 +4879,10 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B322" t="n">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="C322" t="n">
         <v>3</v>
@@ -4893,7 +4893,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B323" t="n">
         <v>204</v>
@@ -4907,10 +4907,10 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B324" t="n">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="C324" t="n">
         <v>3</v>
@@ -4921,7 +4921,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B325" t="n">
         <v>204</v>
@@ -4935,10 +4935,10 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
+        <v>39</v>
+      </c>
+      <c r="B326" t="n">
         <v>78</v>
-      </c>
-      <c r="B326" t="n">
-        <v>204</v>
       </c>
       <c r="C326" t="n">
         <v>3</v>
@@ -4949,7 +4949,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="B327" t="n">
         <v>204</v>
@@ -4963,7 +4963,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="B328" t="n">
         <v>204</v>
@@ -4977,7 +4977,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="B329" t="n">
         <v>204</v>
@@ -4991,10 +4991,10 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B330" t="n">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="C330" t="n">
         <v>3</v>
@@ -5005,10 +5005,10 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B331" t="n">
-        <v>204</v>
+        <v>69</v>
       </c>
       <c r="C331" t="n">
         <v>3</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="B332" t="n">
         <v>204</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B333" t="n">
         <v>204</v>
@@ -5047,10 +5047,10 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B334" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C334" t="n">
         <v>3</v>
@@ -5061,7 +5061,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B335" t="n">
         <v>204</v>
@@ -5075,7 +5075,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B336" t="n">
         <v>204</v>
@@ -5089,7 +5089,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="B337" t="n">
         <v>204</v>
@@ -5103,10 +5103,10 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B338" t="n">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="C338" t="n">
         <v>3</v>
@@ -5117,7 +5117,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="B339" t="n">
         <v>204</v>
@@ -5131,10 +5131,10 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B340" t="n">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="C340" t="n">
         <v>3</v>
@@ -5145,7 +5145,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="B341" t="n">
         <v>204</v>
@@ -5159,10 +5159,10 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B342" t="n">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="C342" t="n">
         <v>3</v>
@@ -5173,7 +5173,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B343" t="n">
         <v>204</v>
@@ -5187,7 +5187,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="B344" t="n">
         <v>204</v>
@@ -5201,10 +5201,10 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B345" t="n">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="C345" t="n">
         <v>3</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="B346" t="n">
         <v>204</v>
@@ -5229,10 +5229,10 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B347" t="n">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="C347" t="n">
         <v>3</v>
@@ -5243,10 +5243,10 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="B348" t="n">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="C348" t="n">
         <v>3</v>
@@ -5257,10 +5257,10 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="B349" t="n">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="C349" t="n">
         <v>3</v>
@@ -5271,10 +5271,10 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="B350" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C350" t="n">
         <v>3</v>
@@ -5285,7 +5285,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="B351" t="n">
         <v>204</v>
@@ -5299,10 +5299,10 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="B352" t="n">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C352" t="n">
         <v>3</v>
@@ -5313,10 +5313,10 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="B353" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C353" t="n">
         <v>3</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="B354" t="n">
         <v>78</v>
@@ -5341,10 +5341,10 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B355" t="n">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="C355" t="n">
         <v>3</v>
@@ -5355,10 +5355,10 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="B356" t="n">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="C356" t="n">
         <v>3</v>
@@ -5369,10 +5369,10 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B357" t="n">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="C357" t="n">
         <v>3</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B358" t="n">
         <v>204</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="B359" t="n">
         <v>204</v>
@@ -5411,10 +5411,10 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="B360" t="n">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="C360" t="n">
         <v>3</v>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="B361" t="n">
         <v>204</v>
@@ -5439,7 +5439,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="B362" t="n">
         <v>204</v>
@@ -5453,7 +5453,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B363" t="n">
         <v>204</v>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B364" t="n">
         <v>204</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="B365" t="n">
         <v>204</v>
@@ -5495,10 +5495,10 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B366" t="n">
-        <v>56</v>
+        <v>204</v>
       </c>
       <c r="C366" t="n">
         <v>3</v>
@@ -5509,10 +5509,10 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B367" t="n">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="C367" t="n">
         <v>3</v>
@@ -5523,7 +5523,7 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="B368" t="n">
         <v>204</v>
@@ -5537,10 +5537,10 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B369" t="n">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="C369" t="n">
         <v>3</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="B370" t="n">
         <v>204</v>
@@ -5565,7 +5565,7 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="B371" t="n">
         <v>204</v>
@@ -5579,10 +5579,10 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B372" t="n">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="C372" t="n">
         <v>3</v>
@@ -5593,10 +5593,10 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="B373" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C373" t="n">
         <v>3</v>
@@ -5607,10 +5607,10 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="B374" t="n">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="C374" t="n">
         <v>3</v>
@@ -5621,7 +5621,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="B375" t="n">
         <v>204</v>
@@ -5635,10 +5635,10 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B376" t="n">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="C376" t="n">
         <v>3</v>
@@ -5649,7 +5649,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B377" t="n">
         <v>204</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="B378" t="n">
         <v>204</v>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B379" t="n">
         <v>204</v>
@@ -5691,7 +5691,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="B380" t="n">
         <v>204</v>
@@ -5705,10 +5705,10 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B381" t="n">
-        <v>204</v>
+        <v>84</v>
       </c>
       <c r="C381" t="n">
         <v>3</v>
@@ -5719,10 +5719,10 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="B382" t="n">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c r="C382" t="n">
         <v>3</v>
@@ -5733,7 +5733,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B383" t="n">
         <v>204</v>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="B384" t="n">
         <v>204</v>
@@ -5761,10 +5761,10 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="B385" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C385" t="n">
         <v>3</v>
@@ -5775,7 +5775,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B386" t="n">
         <v>204</v>
@@ -5789,7 +5789,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="B387" t="n">
         <v>204</v>
@@ -5803,10 +5803,10 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B388" t="n">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="C388" t="n">
         <v>3</v>
@@ -5817,7 +5817,7 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B389" t="n">
         <v>204</v>
@@ -5831,10 +5831,10 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="B390" t="n">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="C390" t="n">
         <v>3</v>
@@ -5845,10 +5845,10 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="B391" t="n">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="C391" t="n">
         <v>3</v>
@@ -5859,10 +5859,10 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B392" t="n">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="C392" t="n">
         <v>4</v>
@@ -5873,10 +5873,10 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B393" t="n">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="C393" t="n">
         <v>4</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B394" t="n">
         <v>188</v>
@@ -5901,7 +5901,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="B395" t="n">
         <v>188</v>
@@ -5915,7 +5915,7 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B396" t="n">
         <v>188</v>
@@ -5929,10 +5929,10 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B397" t="n">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="C397" t="n">
         <v>4</v>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B398" t="n">
         <v>188</v>
@@ -5957,7 +5957,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B399" t="n">
         <v>188</v>
@@ -5971,7 +5971,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B400" t="n">
         <v>188</v>
@@ -5985,7 +5985,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B401" t="n">
         <v>188</v>
@@ -5999,10 +5999,10 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B402" t="n">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="C402" t="n">
         <v>4</v>
@@ -6013,10 +6013,10 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B403" t="n">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="C403" t="n">
         <v>4</v>
@@ -6027,7 +6027,7 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="B404" t="n">
         <v>188</v>
@@ -6041,7 +6041,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B405" t="n">
         <v>188</v>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B406" t="n">
         <v>188</v>
@@ -6069,7 +6069,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="B407" t="n">
         <v>188</v>
@@ -6083,7 +6083,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B408" t="n">
         <v>188</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="B409" t="n">
         <v>188</v>
@@ -6111,10 +6111,10 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B410" t="n">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="C410" t="n">
         <v>4</v>
@@ -6125,10 +6125,10 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="B411" t="n">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="C411" t="n">
         <v>4</v>
@@ -6139,10 +6139,10 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B412" t="n">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="C412" t="n">
         <v>4</v>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B413" t="n">
         <v>188</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="B414" t="n">
         <v>188</v>
@@ -6181,10 +6181,10 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="B415" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C415" t="n">
         <v>4</v>
@@ -6195,7 +6195,7 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B416" t="n">
         <v>188</v>
@@ -6209,7 +6209,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="B417" t="n">
         <v>188</v>
@@ -6223,7 +6223,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="B418" t="n">
         <v>188</v>
@@ -6237,10 +6237,10 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="B419" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C419" t="n">
         <v>4</v>
@@ -6251,7 +6251,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B420" t="n">
         <v>188</v>
@@ -6265,10 +6265,10 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="B421" t="n">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="C421" t="n">
         <v>4</v>
@@ -6279,10 +6279,10 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="B422" t="n">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C422" t="n">
         <v>4</v>
@@ -6293,7 +6293,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="B423" t="n">
         <v>188</v>
@@ -6307,7 +6307,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="B424" t="n">
         <v>188</v>
@@ -6321,10 +6321,10 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B425" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C425" t="n">
         <v>4</v>
@@ -6335,7 +6335,7 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B426" t="n">
         <v>188</v>
@@ -6349,7 +6349,7 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="B427" t="n">
         <v>188</v>
@@ -6363,10 +6363,10 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B428" t="n">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="C428" t="n">
         <v>4</v>
@@ -6377,7 +6377,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="B429" t="n">
         <v>188</v>
@@ -6391,10 +6391,10 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B430" t="n">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="C430" t="n">
         <v>4</v>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B431" t="n">
         <v>188</v>
@@ -6419,7 +6419,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="B432" t="n">
         <v>188</v>
@@ -6433,7 +6433,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="B433" t="n">
         <v>62</v>
@@ -6447,10 +6447,10 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B434" t="n">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="C434" t="n">
         <v>4</v>
@@ -6461,10 +6461,10 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B435" t="n">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="C435" t="n">
         <v>4</v>
@@ -6475,7 +6475,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B436" t="n">
         <v>188</v>
@@ -6489,10 +6489,10 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="B437" t="n">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="C437" t="n">
         <v>4</v>
@@ -6503,10 +6503,10 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B438" t="n">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="C438" t="n">
         <v>4</v>
@@ -6517,7 +6517,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="B439" t="n">
         <v>188</v>
@@ -6531,7 +6531,7 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="B440" t="n">
         <v>188</v>
@@ -6545,7 +6545,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="B441" t="n">
         <v>188</v>
@@ -6559,10 +6559,10 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="B442" t="n">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="C442" t="n">
         <v>4</v>
@@ -6573,7 +6573,7 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="B443" t="n">
         <v>188</v>
@@ -6587,7 +6587,7 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="B444" t="n">
         <v>188</v>
@@ -6601,7 +6601,7 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="B445" t="n">
         <v>188</v>
@@ -6615,10 +6615,10 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="B446" t="n">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="C446" t="n">
         <v>4</v>
@@ -6629,7 +6629,7 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="B447" t="n">
         <v>188</v>
@@ -6643,10 +6643,10 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="B448" t="n">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="C448" t="n">
         <v>4</v>
@@ -6657,10 +6657,10 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B449" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C449" t="n">
         <v>4</v>
@@ -6671,10 +6671,10 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="B450" t="n">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="C450" t="n">
         <v>4</v>
@@ -6685,10 +6685,10 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B451" t="n">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="C451" t="n">
         <v>4</v>
@@ -6699,10 +6699,10 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="B452" t="n">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="C452" t="n">
         <v>4</v>
@@ -6713,7 +6713,7 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B453" t="n">
         <v>188</v>
@@ -6727,7 +6727,7 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B454" t="n">
         <v>188</v>
@@ -6741,7 +6741,7 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="B455" t="n">
         <v>188</v>
@@ -6755,7 +6755,7 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="B456" t="n">
         <v>188</v>
@@ -6769,10 +6769,10 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B457" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C457" t="n">
         <v>4</v>
@@ -6797,10 +6797,10 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="B459" t="n">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="C459" t="n">
         <v>4</v>
@@ -6811,10 +6811,10 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B460" t="n">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="C460" t="n">
         <v>4</v>
@@ -6825,7 +6825,7 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="B461" t="n">
         <v>188</v>
@@ -6839,7 +6839,7 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="B462" t="n">
         <v>188</v>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B463" t="n">
         <v>188</v>
@@ -6867,7 +6867,7 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B464" t="n">
         <v>188</v>
@@ -6881,10 +6881,10 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="B465" t="n">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="C465" t="n">
         <v>4</v>
@@ -6895,7 +6895,7 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="B466" t="n">
         <v>188</v>
@@ -6909,7 +6909,7 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B467" t="n">
         <v>188</v>
@@ -6923,7 +6923,7 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B468" t="n">
         <v>188</v>
@@ -6937,7 +6937,7 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="B469" t="n">
         <v>188</v>
@@ -6951,7 +6951,7 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="B470" t="n">
         <v>188</v>
@@ -6965,10 +6965,10 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="B471" t="n">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="C471" t="n">
         <v>4</v>
@@ -6979,7 +6979,7 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="B472" t="n">
         <v>188</v>
@@ -6993,10 +6993,10 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="B473" t="n">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="C473" t="n">
         <v>4</v>
@@ -7007,10 +7007,10 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="B474" t="n">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="C474" t="n">
         <v>4</v>
@@ -7021,10 +7021,10 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="B475" t="n">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="C475" t="n">
         <v>4</v>
@@ -7035,7 +7035,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B476" t="n">
         <v>188</v>
@@ -7049,10 +7049,10 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="B477" t="n">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="C477" t="n">
         <v>4</v>
@@ -7063,10 +7063,10 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
+        <v>47</v>
+      </c>
+      <c r="B478" t="n">
         <v>62</v>
-      </c>
-      <c r="B478" t="n">
-        <v>188</v>
       </c>
       <c r="C478" t="n">
         <v>4</v>
@@ -7077,10 +7077,10 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B479" t="n">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="C479" t="n">
         <v>4</v>
@@ -7091,7 +7091,7 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B480" t="n">
         <v>188</v>
@@ -7105,7 +7105,7 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B481" t="n">
         <v>188</v>
@@ -7119,10 +7119,10 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B482" t="n">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="C482" t="n">
         <v>4</v>
@@ -7133,10 +7133,10 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B483" t="n">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="C483" t="n">
         <v>4</v>
@@ -7147,10 +7147,10 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="B484" t="n">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="C484" t="n">
         <v>4</v>
@@ -7161,7 +7161,7 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B485" t="n">
         <v>188</v>
@@ -7175,7 +7175,7 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="B486" t="n">
         <v>188</v>
@@ -7189,7 +7189,7 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="B487" t="n">
         <v>188</v>
@@ -7203,7 +7203,7 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B488" t="n">
         <v>188</v>
@@ -7217,10 +7217,10 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="B489" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C489" t="n">
         <v>4</v>
@@ -7231,10 +7231,10 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B490" t="n">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="C490" t="n">
         <v>4</v>
@@ -7245,7 +7245,7 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B491" t="n">
         <v>188</v>
@@ -7259,7 +7259,7 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B492" t="n">
         <v>188</v>
@@ -7273,10 +7273,10 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B493" t="n">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C493" t="n">
         <v>4</v>
@@ -7287,10 +7287,10 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B494" t="n">
-        <v>53</v>
+        <v>188</v>
       </c>
       <c r="C494" t="n">
         <v>4</v>
@@ -7301,7 +7301,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="B495" t="n">
         <v>188</v>
@@ -7315,10 +7315,10 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B496" t="n">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="C496" t="n">
         <v>4</v>
@@ -7329,10 +7329,10 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="B497" t="n">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="C497" t="n">
         <v>4</v>
@@ -7343,10 +7343,10 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="B498" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C498" t="n">
         <v>4</v>
@@ -7357,10 +7357,10 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B499" t="n">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="C499" t="n">
         <v>4</v>
@@ -7371,10 +7371,10 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="B500" t="n">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C500" t="n">
         <v>4</v>
@@ -7385,10 +7385,10 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="B501" t="n">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C501" t="n">
         <v>4</v>
@@ -7399,7 +7399,7 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="B502" t="n">
         <v>188</v>
@@ -7413,10 +7413,10 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="B503" t="n">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="C503" t="n">
         <v>4</v>
@@ -7427,10 +7427,10 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="B504" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C504" t="n">
         <v>4</v>
@@ -7441,7 +7441,7 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B505" t="n">
         <v>188</v>
@@ -7455,7 +7455,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="B506" t="n">
         <v>188</v>
@@ -7469,10 +7469,10 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B507" t="n">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="C507" t="n">
         <v>4</v>
@@ -7483,7 +7483,7 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="B508" t="n">
         <v>188</v>
@@ -7497,10 +7497,10 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B509" t="n">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="C509" t="n">
         <v>4</v>
@@ -7511,7 +7511,7 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B510" t="n">
         <v>188</v>
@@ -7525,7 +7525,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B511" t="n">
         <v>188</v>
@@ -7539,7 +7539,7 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="B512" t="n">
         <v>188</v>
@@ -7553,7 +7553,7 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="B513" t="n">
         <v>188</v>
@@ -7567,7 +7567,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="B514" t="n">
         <v>188</v>
@@ -7581,10 +7581,10 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="B515" t="n">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="C515" t="n">
         <v>4</v>
@@ -7595,10 +7595,10 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B516" t="n">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="C516" t="n">
         <v>4</v>
@@ -7609,7 +7609,7 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B517" t="n">
         <v>188</v>
@@ -7623,7 +7623,7 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="B518" t="n">
         <v>188</v>
@@ -7637,10 +7637,10 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="B519" t="n">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="C519" t="n">
         <v>4</v>
@@ -7651,10 +7651,10 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B520" t="n">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C520" t="n">
         <v>4</v>
@@ -7665,10 +7665,10 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B521" t="n">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="C521" t="n">
         <v>4</v>
@@ -7679,7 +7679,7 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B522" t="n">
         <v>172</v>
@@ -7693,7 +7693,7 @@
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B523" t="n">
         <v>172</v>
@@ -7707,10 +7707,10 @@
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B524" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C524" t="n">
         <v>5</v>
@@ -7721,10 +7721,10 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="B525" t="n">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C525" t="n">
         <v>5</v>
@@ -7735,7 +7735,7 @@
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B526" t="n">
         <v>46</v>
@@ -7749,10 +7749,10 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B527" t="n">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="C527" t="n">
         <v>5</v>
@@ -7763,10 +7763,10 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B528" t="n">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="C528" t="n">
         <v>5</v>
@@ -7777,7 +7777,7 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B529" t="n">
         <v>172</v>
@@ -7791,10 +7791,10 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="B530" t="n">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C530" t="n">
         <v>5</v>
@@ -7805,7 +7805,7 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="B531" t="n">
         <v>172</v>
@@ -7819,10 +7819,10 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B532" t="n">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="C532" t="n">
         <v>5</v>
@@ -7833,10 +7833,10 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B533" t="n">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C533" t="n">
         <v>5</v>
@@ -7847,7 +7847,7 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B534" t="n">
         <v>172</v>
@@ -7861,7 +7861,7 @@
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B535" t="n">
         <v>172</v>
@@ -7875,10 +7875,10 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B536" t="n">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="C536" t="n">
         <v>5</v>
@@ -7889,10 +7889,10 @@
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B537" t="n">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C537" t="n">
         <v>5</v>
@@ -7903,7 +7903,7 @@
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="B538" t="n">
         <v>172</v>
@@ -7917,7 +7917,7 @@
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="B539" t="n">
         <v>172</v>
@@ -7931,10 +7931,10 @@
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="B540" t="n">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="C540" t="n">
         <v>5</v>
@@ -7945,10 +7945,10 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B541" t="n">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="C541" t="n">
         <v>5</v>
@@ -7959,10 +7959,10 @@
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="B542" t="n">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="C542" t="n">
         <v>5</v>
@@ -7973,7 +7973,7 @@
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="B543" t="n">
         <v>172</v>
@@ -7987,7 +7987,7 @@
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="B544" t="n">
         <v>172</v>
@@ -8001,7 +8001,7 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B545" t="n">
         <v>172</v>
@@ -8015,10 +8015,10 @@
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="B546" t="n">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="C546" t="n">
         <v>5</v>
@@ -8029,7 +8029,7 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="B547" t="n">
         <v>172</v>
@@ -8043,7 +8043,7 @@
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="B548" t="n">
         <v>172</v>
@@ -8057,7 +8057,7 @@
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="B549" t="n">
         <v>172</v>
@@ -8071,7 +8071,7 @@
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B550" t="n">
         <v>172</v>
@@ -8085,10 +8085,10 @@
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B551" t="n">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C551" t="n">
         <v>5</v>
@@ -8099,10 +8099,10 @@
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="B552" t="n">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C552" t="n">
         <v>5</v>
@@ -8113,7 +8113,7 @@
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B553" t="n">
         <v>172</v>
@@ -8127,10 +8127,10 @@
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="B554" t="n">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="C554" t="n">
         <v>5</v>
@@ -8141,10 +8141,10 @@
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B555" t="n">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C555" t="n">
         <v>5</v>
@@ -8155,7 +8155,7 @@
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B556" t="n">
         <v>172</v>
@@ -8169,7 +8169,7 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B557" t="n">
         <v>172</v>
@@ -8183,7 +8183,7 @@
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B558" t="n">
         <v>172</v>
@@ -8197,7 +8197,7 @@
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B559" t="n">
         <v>172</v>
@@ -8211,7 +8211,7 @@
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="B560" t="n">
         <v>172</v>
@@ -8225,10 +8225,10 @@
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="B561" t="n">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C561" t="n">
         <v>5</v>
@@ -8239,7 +8239,7 @@
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="B562" t="n">
         <v>172</v>
@@ -8253,7 +8253,7 @@
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="B563" t="n">
         <v>172</v>
@@ -8267,10 +8267,10 @@
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B564" t="n">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="C564" t="n">
         <v>5</v>
@@ -8281,7 +8281,7 @@
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="B565" t="n">
         <v>172</v>
@@ -8309,7 +8309,7 @@
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B567" t="n">
         <v>172</v>
@@ -8323,10 +8323,10 @@
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="B568" t="n">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="C568" t="n">
         <v>5</v>
@@ -8337,10 +8337,10 @@
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="B569" t="n">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="C569" t="n">
         <v>5</v>
@@ -8351,7 +8351,7 @@
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B570" t="n">
         <v>172</v>
@@ -8365,7 +8365,7 @@
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="B571" t="n">
         <v>172</v>
@@ -8379,10 +8379,10 @@
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="B572" t="n">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C572" t="n">
         <v>5</v>
@@ -8393,10 +8393,10 @@
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B573" t="n">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C573" t="n">
         <v>5</v>
@@ -8407,7 +8407,7 @@
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B574" t="n">
         <v>172</v>
@@ -8421,7 +8421,7 @@
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B575" t="n">
         <v>172</v>
@@ -8435,7 +8435,7 @@
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="B576" t="n">
         <v>172</v>
@@ -8449,10 +8449,10 @@
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B577" t="n">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="C577" t="n">
         <v>5</v>
@@ -8463,7 +8463,7 @@
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="B578" t="n">
         <v>172</v>
@@ -8477,7 +8477,7 @@
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B579" t="n">
         <v>172</v>
@@ -8491,7 +8491,7 @@
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B580" t="n">
         <v>172</v>
@@ -8505,7 +8505,7 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B581" t="n">
         <v>172</v>
@@ -8533,7 +8533,7 @@
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B583" t="n">
         <v>172</v>
@@ -8547,10 +8547,10 @@
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="B584" t="n">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="C584" t="n">
         <v>5</v>
@@ -8561,7 +8561,7 @@
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="B585" t="n">
         <v>46</v>
@@ -8575,7 +8575,7 @@
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B586" t="n">
         <v>172</v>
@@ -8589,7 +8589,7 @@
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B587" t="n">
         <v>172</v>
@@ -8603,10 +8603,10 @@
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="B588" t="n">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C588" t="n">
         <v>5</v>
@@ -8617,10 +8617,10 @@
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B589" t="n">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="C589" t="n">
         <v>5</v>
@@ -8631,10 +8631,10 @@
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="B590" t="n">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="C590" t="n">
         <v>5</v>
@@ -8645,10 +8645,10 @@
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="B591" t="n">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="C591" t="n">
         <v>5</v>
@@ -8659,7 +8659,7 @@
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="B592" t="n">
         <v>172</v>
@@ -8673,7 +8673,7 @@
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="B593" t="n">
         <v>172</v>
@@ -8687,7 +8687,7 @@
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="B594" t="n">
         <v>172</v>
@@ -8701,10 +8701,10 @@
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B595" t="n">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="C595" t="n">
         <v>5</v>
@@ -8715,7 +8715,7 @@
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="B596" t="n">
         <v>172</v>
@@ -8729,7 +8729,7 @@
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="B597" t="n">
         <v>172</v>
@@ -8743,10 +8743,10 @@
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B598" t="n">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C598" t="n">
         <v>5</v>
@@ -8757,10 +8757,10 @@
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="B599" t="n">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="C599" t="n">
         <v>5</v>
@@ -8771,10 +8771,10 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B600" t="n">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="C600" t="n">
         <v>5</v>
@@ -8785,10 +8785,10 @@
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="B601" t="n">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C601" t="n">
         <v>5</v>
@@ -8799,7 +8799,7 @@
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B602" t="n">
         <v>172</v>
@@ -8813,10 +8813,10 @@
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B603" t="n">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="C603" t="n">
         <v>5</v>
@@ -8827,10 +8827,10 @@
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="B604" t="n">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="C604" t="n">
         <v>5</v>
@@ -8841,10 +8841,10 @@
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B605" t="n">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C605" t="n">
         <v>5</v>
@@ -8855,10 +8855,10 @@
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="B606" t="n">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="C606" t="n">
         <v>5</v>
@@ -8869,7 +8869,7 @@
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B607" t="n">
         <v>172</v>
@@ -8883,7 +8883,7 @@
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B608" t="n">
         <v>172</v>
@@ -8897,7 +8897,7 @@
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B609" t="n">
         <v>172</v>
@@ -8911,10 +8911,10 @@
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="B610" t="n">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C610" t="n">
         <v>5</v>
@@ -8925,10 +8925,10 @@
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="B611" t="n">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="C611" t="n">
         <v>5</v>
@@ -8939,10 +8939,10 @@
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="B612" t="n">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C612" t="n">
         <v>5</v>
@@ -8953,10 +8953,10 @@
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B613" t="n">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="C613" t="n">
         <v>5</v>
@@ -8967,10 +8967,10 @@
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="B614" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C614" t="n">
         <v>5</v>
@@ -8981,7 +8981,7 @@
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B615" t="n">
         <v>172</v>
@@ -8995,7 +8995,7 @@
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="B616" t="n">
         <v>172</v>
@@ -9009,10 +9009,10 @@
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B617" t="n">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C617" t="n">
         <v>5</v>
@@ -9023,10 +9023,10 @@
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="B618" t="n">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="C618" t="n">
         <v>5</v>
@@ -9037,7 +9037,7 @@
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B619" t="n">
         <v>172</v>
@@ -9051,10 +9051,10 @@
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B620" t="n">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="C620" t="n">
         <v>5</v>
@@ -9065,10 +9065,10 @@
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="B621" t="n">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="C621" t="n">
         <v>5</v>
@@ -9079,10 +9079,10 @@
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B622" t="n">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C622" t="n">
         <v>5</v>
@@ -9093,7 +9093,7 @@
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="B623" t="n">
         <v>172</v>
@@ -9107,10 +9107,10 @@
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B624" t="n">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="C624" t="n">
         <v>5</v>
@@ -9121,7 +9121,7 @@
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B625" t="n">
         <v>172</v>
@@ -9135,10 +9135,10 @@
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B626" t="n">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C626" t="n">
         <v>5</v>
@@ -9149,10 +9149,10 @@
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B627" t="n">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="C627" t="n">
         <v>5</v>
@@ -9163,7 +9163,7 @@
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="B628" t="n">
         <v>172</v>
@@ -9177,7 +9177,7 @@
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="B629" t="n">
         <v>172</v>
@@ -9191,10 +9191,10 @@
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="B630" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C630" t="n">
         <v>5</v>
@@ -9205,7 +9205,7 @@
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="B631" t="n">
         <v>172</v>
@@ -9219,7 +9219,7 @@
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="B632" t="n">
         <v>172</v>
@@ -9233,10 +9233,10 @@
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B633" t="n">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="C633" t="n">
         <v>5</v>
@@ -9247,7 +9247,7 @@
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B634" t="n">
         <v>172</v>
@@ -9261,7 +9261,7 @@
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B635" t="n">
         <v>172</v>
@@ -9275,7 +9275,7 @@
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="B636" t="n">
         <v>172</v>
@@ -9289,7 +9289,7 @@
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="B637" t="n">
         <v>172</v>
@@ -9303,7 +9303,7 @@
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="B638" t="n">
         <v>172</v>
@@ -9317,10 +9317,10 @@
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="B639" t="n">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="C639" t="n">
         <v>5</v>
@@ -9331,7 +9331,7 @@
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="B640" t="n">
         <v>172</v>
@@ -9345,10 +9345,10 @@
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="B641" t="n">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C641" t="n">
         <v>5</v>
@@ -9359,10 +9359,10 @@
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="B642" t="n">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="C642" t="n">
         <v>5</v>
@@ -9373,7 +9373,7 @@
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B643" t="n">
         <v>172</v>
@@ -9387,7 +9387,7 @@
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B644" t="n">
         <v>172</v>
@@ -9401,7 +9401,7 @@
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B645" t="n">
         <v>172</v>
@@ -9415,10 +9415,10 @@
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="B646" t="n">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C646" t="n">
         <v>5</v>
@@ -9429,7 +9429,7 @@
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="B647" t="n">
         <v>172</v>
@@ -9443,7 +9443,7 @@
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B648" t="n">
         <v>172</v>
@@ -9457,10 +9457,10 @@
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="B649" t="n">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="C649" t="n">
         <v>5</v>
@@ -9471,7 +9471,7 @@
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="B650" t="n">
         <v>172</v>
@@ -9485,7 +9485,7 @@
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B651" t="n">
         <v>156</v>
@@ -9499,7 +9499,7 @@
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B652" t="n">
         <v>156</v>
@@ -9513,7 +9513,7 @@
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B653" t="n">
         <v>30</v>
@@ -9541,7 +9541,7 @@
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B655" t="n">
         <v>156</v>
@@ -9555,10 +9555,10 @@
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B656" t="n">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C656" t="n">
         <v>6</v>
@@ -9569,7 +9569,7 @@
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B657" t="n">
         <v>156</v>
@@ -9583,7 +9583,7 @@
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B658" t="n">
         <v>156</v>
@@ -9597,10 +9597,10 @@
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="B659" t="n">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="C659" t="n">
         <v>6</v>
@@ -9611,7 +9611,7 @@
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="B660" t="n">
         <v>156</v>
@@ -9625,7 +9625,7 @@
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B661" t="n">
         <v>156</v>
@@ -9639,10 +9639,10 @@
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B662" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C662" t="n">
         <v>6</v>
@@ -9653,7 +9653,7 @@
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B663" t="n">
         <v>156</v>
@@ -9667,10 +9667,10 @@
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B664" t="n">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="C664" t="n">
         <v>6</v>
@@ -9681,7 +9681,7 @@
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="B665" t="n">
         <v>156</v>
@@ -9695,7 +9695,7 @@
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B666" t="n">
         <v>156</v>
@@ -9709,10 +9709,10 @@
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="B667" t="n">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C667" t="n">
         <v>6</v>
@@ -9723,7 +9723,7 @@
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="B668" t="n">
         <v>156</v>
@@ -9737,7 +9737,7 @@
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="B669" t="n">
         <v>156</v>
@@ -9751,10 +9751,10 @@
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B670" t="n">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="C670" t="n">
         <v>6</v>
@@ -9765,7 +9765,7 @@
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B671" t="n">
         <v>30</v>
@@ -9779,10 +9779,10 @@
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="B672" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C672" t="n">
         <v>6</v>
@@ -9793,7 +9793,7 @@
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="B673" t="n">
         <v>156</v>
@@ -9807,10 +9807,10 @@
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="B674" t="n">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="C674" t="n">
         <v>6</v>
@@ -9821,10 +9821,10 @@
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="B675" t="n">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="C675" t="n">
         <v>6</v>
@@ -9835,7 +9835,7 @@
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B676" t="n">
         <v>156</v>
@@ -9849,10 +9849,10 @@
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B677" t="n">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="C677" t="n">
         <v>6</v>
@@ -9863,7 +9863,7 @@
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B678" t="n">
         <v>156</v>
@@ -9877,10 +9877,10 @@
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B679" t="n">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="C679" t="n">
         <v>6</v>
@@ -9891,7 +9891,7 @@
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B680" t="n">
         <v>156</v>
@@ -9905,7 +9905,7 @@
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B681" t="n">
         <v>156</v>
@@ -9919,10 +9919,10 @@
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="B682" t="n">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C682" t="n">
         <v>6</v>
@@ -9933,7 +9933,7 @@
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B683" t="n">
         <v>156</v>
@@ -9947,7 +9947,7 @@
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B684" t="n">
         <v>156</v>
@@ -9961,7 +9961,7 @@
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B685" t="n">
         <v>156</v>
@@ -9975,7 +9975,7 @@
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="B686" t="n">
         <v>156</v>
@@ -9989,7 +9989,7 @@
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="B687" t="n">
         <v>156</v>
@@ -10003,7 +10003,7 @@
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B688" t="n">
         <v>156</v>
@@ -10017,7 +10017,7 @@
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="B689" t="n">
         <v>156</v>
@@ -10031,10 +10031,10 @@
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="B690" t="n">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="C690" t="n">
         <v>6</v>
@@ -10045,7 +10045,7 @@
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B691" t="n">
         <v>156</v>
@@ -10059,7 +10059,7 @@
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="B692" t="n">
         <v>156</v>
@@ -10073,7 +10073,7 @@
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B693" t="n">
         <v>156</v>
@@ -10087,7 +10087,7 @@
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B694" t="n">
         <v>156</v>
@@ -10101,7 +10101,7 @@
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="B695" t="n">
         <v>156</v>
@@ -10115,10 +10115,10 @@
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B696" t="n">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C696" t="n">
         <v>6</v>
@@ -10129,7 +10129,7 @@
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="B697" t="n">
         <v>156</v>
@@ -10143,10 +10143,10 @@
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="B698" t="n">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="C698" t="n">
         <v>6</v>
@@ -10157,10 +10157,10 @@
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B699" t="n">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C699" t="n">
         <v>6</v>
@@ -10171,10 +10171,10 @@
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B700" t="n">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C700" t="n">
         <v>6</v>
@@ -10185,10 +10185,10 @@
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="B701" t="n">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C701" t="n">
         <v>6</v>
@@ -10199,10 +10199,10 @@
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="B702" t="n">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C702" t="n">
         <v>6</v>
@@ -10213,10 +10213,10 @@
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="B703" t="n">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="C703" t="n">
         <v>6</v>
@@ -10227,7 +10227,7 @@
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="B704" t="n">
         <v>156</v>
@@ -10241,10 +10241,10 @@
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="B705" t="n">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C705" t="n">
         <v>6</v>
@@ -10255,7 +10255,7 @@
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="B706" t="n">
         <v>156</v>
@@ -10269,10 +10269,10 @@
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="B707" t="n">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="C707" t="n">
         <v>6</v>
@@ -10283,7 +10283,7 @@
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B708" t="n">
         <v>156</v>
@@ -10297,7 +10297,7 @@
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="B709" t="n">
         <v>156</v>
@@ -10311,10 +10311,10 @@
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="B710" t="n">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C710" t="n">
         <v>6</v>
@@ -10325,10 +10325,10 @@
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="B711" t="n">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="C711" t="n">
         <v>6</v>
@@ -10339,10 +10339,10 @@
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B712" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C712" t="n">
         <v>6</v>
@@ -10353,7 +10353,7 @@
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="B713" t="n">
         <v>156</v>
@@ -10367,10 +10367,10 @@
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B714" t="n">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C714" t="n">
         <v>6</v>
@@ -10381,7 +10381,7 @@
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="B715" t="n">
         <v>156</v>
@@ -10395,7 +10395,7 @@
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B716" t="n">
         <v>156</v>
@@ -10409,10 +10409,10 @@
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="B717" t="n">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C717" t="n">
         <v>6</v>
@@ -10423,7 +10423,7 @@
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B718" t="n">
         <v>156</v>
@@ -10437,10 +10437,10 @@
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B719" t="n">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="C719" t="n">
         <v>6</v>
@@ -10451,7 +10451,7 @@
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B720" t="n">
         <v>156</v>
@@ -10465,10 +10465,10 @@
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="B721" t="n">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="C721" t="n">
         <v>6</v>
@@ -10479,10 +10479,10 @@
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B722" t="n">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="C722" t="n">
         <v>6</v>
@@ -10493,7 +10493,7 @@
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B723" t="n">
         <v>156</v>
@@ -10507,7 +10507,7 @@
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B724" t="n">
         <v>156</v>
@@ -10521,10 +10521,10 @@
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="B725" t="n">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C725" t="n">
         <v>6</v>
@@ -10535,10 +10535,10 @@
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B726" t="n">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C726" t="n">
         <v>6</v>
@@ -10549,7 +10549,7 @@
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B727" t="n">
         <v>156</v>
@@ -10563,7 +10563,7 @@
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="B728" t="n">
         <v>156</v>
@@ -10577,7 +10577,7 @@
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="B729" t="n">
         <v>156</v>
@@ -10591,7 +10591,7 @@
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B730" t="n">
         <v>156</v>
@@ -10605,7 +10605,7 @@
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="B731" t="n">
         <v>156</v>
@@ -10619,7 +10619,7 @@
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B732" t="n">
         <v>156</v>
@@ -10633,7 +10633,7 @@
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B733" t="n">
         <v>156</v>
@@ -10647,7 +10647,7 @@
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B734" t="n">
         <v>156</v>
@@ -10661,10 +10661,10 @@
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B735" t="n">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C735" t="n">
         <v>6</v>
@@ -10675,10 +10675,10 @@
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B736" t="n">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="C736" t="n">
         <v>6</v>
@@ -10689,7 +10689,7 @@
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B737" t="n">
         <v>156</v>
@@ -10703,10 +10703,10 @@
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B738" t="n">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C738" t="n">
         <v>6</v>
@@ -10717,10 +10717,10 @@
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="B739" t="n">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="C739" t="n">
         <v>6</v>
@@ -10731,10 +10731,10 @@
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B740" t="n">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C740" t="n">
         <v>6</v>
@@ -10745,7 +10745,7 @@
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="B741" t="n">
         <v>156</v>
@@ -10759,7 +10759,7 @@
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B742" t="n">
         <v>156</v>
@@ -10773,7 +10773,7 @@
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B743" t="n">
         <v>156</v>
@@ -10787,7 +10787,7 @@
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="B744" t="n">
         <v>156</v>
@@ -10801,7 +10801,7 @@
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="B745" t="n">
         <v>156</v>
@@ -10815,7 +10815,7 @@
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B746" t="n">
         <v>156</v>
@@ -10829,7 +10829,7 @@
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="B747" t="n">
         <v>156</v>
@@ -10843,7 +10843,7 @@
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="B748" t="n">
         <v>156</v>
@@ -10857,7 +10857,7 @@
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="B749" t="n">
         <v>156</v>
@@ -10871,10 +10871,10 @@
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="B750" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C750" t="n">
         <v>6</v>
@@ -10885,7 +10885,7 @@
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="B751" t="n">
         <v>156</v>
@@ -10899,7 +10899,7 @@
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="B752" t="n">
         <v>138</v>
@@ -10913,10 +10913,10 @@
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="B753" t="n">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C753" t="n">
         <v>6</v>
@@ -10927,10 +10927,10 @@
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="B754" t="n">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="C754" t="n">
         <v>6</v>
@@ -10941,10 +10941,10 @@
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B755" t="n">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C755" t="n">
         <v>6</v>
@@ -10955,10 +10955,10 @@
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="B756" t="n">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="C756" t="n">
         <v>6</v>
@@ -10969,7 +10969,7 @@
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="B757" t="n">
         <v>156</v>
@@ -10983,7 +10983,7 @@
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B758" t="n">
         <v>156</v>
@@ -10997,7 +10997,7 @@
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="B759" t="n">
         <v>156</v>
@@ -11011,10 +11011,10 @@
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="B760" t="n">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="C760" t="n">
         <v>6</v>
@@ -11025,7 +11025,7 @@
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B761" t="n">
         <v>156</v>
@@ -11039,7 +11039,7 @@
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="B762" t="n">
         <v>156</v>
@@ -11053,7 +11053,7 @@
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B763" t="n">
         <v>156</v>
@@ -11067,7 +11067,7 @@
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B764" t="n">
         <v>156</v>
@@ -11081,7 +11081,7 @@
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="B765" t="n">
         <v>156</v>
@@ -11095,10 +11095,10 @@
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="B766" t="n">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="C766" t="n">
         <v>6</v>
@@ -11109,10 +11109,10 @@
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B767" t="n">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C767" t="n">
         <v>6</v>
@@ -11123,7 +11123,7 @@
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B768" t="n">
         <v>156</v>
@@ -11137,7 +11137,7 @@
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B769" t="n">
         <v>156</v>
@@ -11151,10 +11151,10 @@
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B770" t="n">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C770" t="n">
         <v>6</v>
@@ -11165,7 +11165,7 @@
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="B771" t="n">
         <v>156</v>
@@ -11179,7 +11179,7 @@
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="B772" t="n">
         <v>156</v>
@@ -11193,7 +11193,7 @@
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="B773" t="n">
         <v>156</v>
@@ -11207,7 +11207,7 @@
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B774" t="n">
         <v>156</v>
@@ -11221,10 +11221,10 @@
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="B775" t="n">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C775" t="n">
         <v>6</v>
@@ -11235,7 +11235,7 @@
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B776" t="n">
         <v>156</v>
@@ -11249,7 +11249,7 @@
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B777" t="n">
         <v>156</v>
@@ -11263,7 +11263,7 @@
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B778" t="n">
         <v>156</v>
@@ -11277,7 +11277,7 @@
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B779" t="n">
         <v>140</v>
@@ -11291,7 +11291,7 @@
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="B780" t="n">
         <v>140</v>
@@ -11305,7 +11305,7 @@
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B781" t="n">
         <v>140</v>
@@ -11319,7 +11319,7 @@
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B782" t="n">
         <v>140</v>
@@ -11333,7 +11333,7 @@
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B783" t="n">
         <v>140</v>
@@ -11347,7 +11347,7 @@
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="B784" t="n">
         <v>140</v>
@@ -11361,10 +11361,10 @@
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="B785" t="n">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C785" t="n">
         <v>7</v>
@@ -11375,7 +11375,7 @@
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B786" t="n">
         <v>140</v>
@@ -11389,10 +11389,10 @@
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="B787" t="n">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="C787" t="n">
         <v>7</v>
@@ -11403,7 +11403,7 @@
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="B788" t="n">
         <v>140</v>
@@ -11417,7 +11417,7 @@
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="B789" t="n">
         <v>140</v>
@@ -11431,10 +11431,10 @@
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="B790" t="n">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C790" t="n">
         <v>7</v>
@@ -11445,10 +11445,10 @@
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B791" t="n">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="C791" t="n">
         <v>7</v>
@@ -11459,7 +11459,7 @@
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="B792" t="n">
         <v>140</v>
@@ -11473,7 +11473,7 @@
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="B793" t="n">
         <v>140</v>
@@ -11487,7 +11487,7 @@
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B794" t="n">
         <v>140</v>
@@ -11501,7 +11501,7 @@
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B795" t="n">
         <v>140</v>
@@ -11515,7 +11515,7 @@
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="B796" t="n">
         <v>140</v>
@@ -11529,7 +11529,7 @@
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="B797" t="n">
         <v>140</v>
@@ -11543,7 +11543,7 @@
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="B798" t="n">
         <v>140</v>
@@ -11557,10 +11557,10 @@
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B799" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C799" t="n">
         <v>7</v>
@@ -11571,10 +11571,10 @@
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="B800" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="C800" t="n">
         <v>7</v>
@@ -11585,7 +11585,7 @@
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B801" t="n">
         <v>140</v>
@@ -11599,10 +11599,10 @@
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B802" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C802" t="n">
         <v>7</v>
@@ -11613,7 +11613,7 @@
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="B803" t="n">
         <v>140</v>
@@ -11627,10 +11627,10 @@
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="B804" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C804" t="n">
         <v>7</v>
@@ -11641,7 +11641,7 @@
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="B805" t="n">
         <v>140</v>
@@ -11655,7 +11655,7 @@
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B806" t="n">
         <v>140</v>
@@ -11669,7 +11669,7 @@
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="B807" t="n">
         <v>140</v>
@@ -11683,7 +11683,7 @@
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B808" t="n">
         <v>140</v>
@@ -11697,10 +11697,10 @@
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="B809" t="n">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="C809" t="n">
         <v>7</v>
@@ -11711,10 +11711,10 @@
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B810" t="n">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="C810" t="n">
         <v>7</v>
@@ -11725,7 +11725,7 @@
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="B811" t="n">
         <v>140</v>
@@ -11739,7 +11739,7 @@
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="B812" t="n">
         <v>140</v>
@@ -11753,7 +11753,7 @@
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B813" t="n">
         <v>140</v>
@@ -11767,10 +11767,10 @@
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B814" t="n">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="C814" t="n">
         <v>7</v>
@@ -11781,7 +11781,7 @@
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="B815" t="n">
         <v>140</v>
@@ -11795,7 +11795,7 @@
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B816" t="n">
         <v>140</v>
@@ -11809,10 +11809,10 @@
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="B817" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="C817" t="n">
         <v>7</v>
@@ -11823,10 +11823,10 @@
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B818" t="n">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="C818" t="n">
         <v>7</v>
@@ -11837,7 +11837,7 @@
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B819" t="n">
         <v>140</v>
@@ -11851,7 +11851,7 @@
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="B820" t="n">
         <v>140</v>
@@ -11865,7 +11865,7 @@
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="B821" t="n">
         <v>140</v>
@@ -11879,10 +11879,10 @@
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B822" t="n">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C822" t="n">
         <v>7</v>
@@ -11893,7 +11893,7 @@
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="B823" t="n">
         <v>140</v>
@@ -11907,7 +11907,7 @@
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="B824" t="n">
         <v>140</v>
@@ -11921,7 +11921,7 @@
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="B825" t="n">
         <v>140</v>
@@ -11935,7 +11935,7 @@
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="B826" t="n">
         <v>140</v>
@@ -11949,7 +11949,7 @@
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B827" t="n">
         <v>140</v>
@@ -11963,7 +11963,7 @@
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B828" t="n">
         <v>140</v>
@@ -11977,10 +11977,10 @@
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="B829" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="C829" t="n">
         <v>7</v>
@@ -11991,7 +11991,7 @@
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="B830" t="n">
         <v>140</v>
@@ -12005,7 +12005,7 @@
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B831" t="n">
         <v>140</v>
@@ -12019,7 +12019,7 @@
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="B832" t="n">
         <v>140</v>
@@ -12033,7 +12033,7 @@
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="B833" t="n">
         <v>140</v>
@@ -12047,7 +12047,7 @@
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B834" t="n">
         <v>140</v>
@@ -12061,7 +12061,7 @@
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B835" t="n">
         <v>140</v>
@@ -12075,7 +12075,7 @@
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="B836" t="n">
         <v>140</v>
@@ -12089,7 +12089,7 @@
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="B837" t="n">
         <v>140</v>
@@ -12103,7 +12103,7 @@
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B838" t="n">
         <v>140</v>
@@ -12117,7 +12117,7 @@
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="B839" t="n">
         <v>140</v>
@@ -12131,10 +12131,10 @@
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B840" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="C840" t="n">
         <v>7</v>
@@ -12145,7 +12145,7 @@
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="B841" t="n">
         <v>140</v>
@@ -12159,7 +12159,7 @@
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="B842" t="n">
         <v>140</v>
@@ -12173,7 +12173,7 @@
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B843" t="n">
         <v>140</v>
@@ -12187,10 +12187,10 @@
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B844" t="n">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C844" t="n">
         <v>7</v>
@@ -12201,7 +12201,7 @@
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="B845" t="n">
         <v>140</v>
@@ -12215,7 +12215,7 @@
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B846" t="n">
         <v>140</v>
@@ -12229,10 +12229,10 @@
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B847" t="n">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C847" t="n">
         <v>7</v>
@@ -12243,7 +12243,7 @@
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B848" t="n">
         <v>140</v>
@@ -12257,7 +12257,7 @@
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B849" t="n">
         <v>140</v>
@@ -12271,10 +12271,10 @@
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B850" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C850" t="n">
         <v>7</v>
@@ -12285,7 +12285,7 @@
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B851" t="n">
         <v>140</v>
@@ -12299,7 +12299,7 @@
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="B852" t="n">
         <v>140</v>
@@ -12313,10 +12313,10 @@
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="B853" t="n">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C853" t="n">
         <v>7</v>
@@ -12327,7 +12327,7 @@
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="B854" t="n">
         <v>140</v>
@@ -12341,7 +12341,7 @@
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="B855" t="n">
         <v>140</v>
@@ -12355,7 +12355,7 @@
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B856" t="n">
         <v>140</v>
@@ -12369,10 +12369,10 @@
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="B857" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C857" t="n">
         <v>7</v>
@@ -12383,10 +12383,10 @@
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B858" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C858" t="n">
         <v>7</v>
@@ -12397,10 +12397,10 @@
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B859" t="n">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C859" t="n">
         <v>7</v>
@@ -12411,7 +12411,7 @@
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B860" t="n">
         <v>140</v>
@@ -12425,10 +12425,10 @@
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B861" t="n">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="C861" t="n">
         <v>7</v>
@@ -12439,10 +12439,10 @@
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B862" t="n">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C862" t="n">
         <v>7</v>
@@ -12453,10 +12453,10 @@
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B863" t="n">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="C863" t="n">
         <v>7</v>
@@ -12467,7 +12467,7 @@
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="B864" t="n">
         <v>140</v>
@@ -12481,7 +12481,7 @@
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B865" t="n">
         <v>140</v>
@@ -12495,7 +12495,7 @@
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="B866" t="n">
         <v>140</v>
@@ -12509,7 +12509,7 @@
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="B867" t="n">
         <v>140</v>
@@ -12523,10 +12523,10 @@
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B868" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="C868" t="n">
         <v>7</v>
@@ -12537,7 +12537,7 @@
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B869" t="n">
         <v>140</v>
@@ -12551,7 +12551,7 @@
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B870" t="n">
         <v>140</v>
@@ -12565,7 +12565,7 @@
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B871" t="n">
         <v>140</v>
@@ -12579,10 +12579,10 @@
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B872" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C872" t="n">
         <v>7</v>
@@ -12593,7 +12593,7 @@
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="B873" t="n">
         <v>140</v>
@@ -12607,7 +12607,7 @@
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="B874" t="n">
         <v>140</v>
@@ -12621,7 +12621,7 @@
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="B875" t="n">
         <v>140</v>
@@ -12635,7 +12635,7 @@
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B876" t="n">
         <v>140</v>
@@ -12649,7 +12649,7 @@
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B877" t="n">
         <v>140</v>
@@ -12663,10 +12663,10 @@
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B878" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="C878" t="n">
         <v>7</v>
@@ -12677,10 +12677,10 @@
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B879" t="n">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="C879" t="n">
         <v>7</v>
@@ -12691,10 +12691,10 @@
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="B880" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C880" t="n">
         <v>7</v>
@@ -12705,7 +12705,7 @@
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="B881" t="n">
         <v>140</v>
@@ -12719,7 +12719,7 @@
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B882" t="n">
         <v>140</v>
@@ -12733,10 +12733,10 @@
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="B883" t="n">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="C883" t="n">
         <v>7</v>
@@ -12747,7 +12747,7 @@
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="B884" t="n">
         <v>140</v>
@@ -12761,7 +12761,7 @@
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B885" t="n">
         <v>140</v>
@@ -12775,10 +12775,10 @@
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B886" t="n">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="C886" t="n">
         <v>7</v>
@@ -12789,10 +12789,10 @@
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B887" t="n">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C887" t="n">
         <v>7</v>
@@ -12803,7 +12803,7 @@
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="B888" t="n">
         <v>140</v>
@@ -12817,7 +12817,7 @@
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B889" t="n">
         <v>140</v>
@@ -12831,7 +12831,7 @@
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B890" t="n">
         <v>140</v>
@@ -12845,7 +12845,7 @@
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="B891" t="n">
         <v>140</v>

--- a/docs/post/Croqui_08_12_2021.xlsx
+++ b/docs/post/Croqui_08_12_2021.xlsx
@@ -30,25 +30,25 @@
     <t xml:space="preserve">row</t>
   </si>
   <si>
-    <t xml:space="preserve">51, 36, 104, 12, 124, 47, 39, 105, 21, 118, 115, 127, 19, 63, 111, 82, 5, 61, 92, 68, 8, 67, 50, 13, 99, 75, 1, 84, 79, 23, 55, 129, 16, 78, 88, 116, 2, 101, 102, 71, 34, 25, 43, 121, 91, 38, 17, 45, 94, 93, 72, 59, 73, 74, 123, 14, 15, 9, 76, 86, 56, 49, 32, 80, 26, 18, 27, 122, 31, 103, 22, 65, 4, 42, 35, 62, 126, 46, 81, 54, 6, 64, 40, 52, 107, 120, 108, 95, 60, 112, 109, 106, 11, 83, 10, 30, 77, 37, 24, 29, 48, 117, 96, 85, 119, 114, 41, 3, 113, 89, 125, 70, 100, 58, 57, 110, 130, 33, 53, 69, 98, 44, 128, 90, 28, 97, 20, 7, 87, 66</t>
+    <t xml:space="preserve">116, 90, 68, 54, 53, 80, 47, 94, 17, 129, 14, 73, 3, 37, 108, 103, 95, 83, 75, 115, 40, 60, 34, 109, 84, 24, 48, 81, 127, 122, 117, 78, 70, 25, 28, 120, 107, 74, 91, 27, 67, 113, 50, 128, 39, 61, 52, 82, 51, 5, 77, 63, 86, 69, 18, 26, 43, 99, 93, 87, 114, 119, 126, 22, 88, 38, 23, 111, 35, 42, 92, 79, 33, 21, 19, 36, 96, 98, 29, 32, 45, 72, 58, 71, 124, 59, 30, 44, 12, 1, 8, 130, 105, 121, 64, 10, 112, 89, 46, 13, 57, 123, 9, 65, 100, 85, 106, 66, 56, 31, 125, 102, 55, 2, 15, 41, 97, 4, 7, 49, 110, 101, 62, 20, 104, 6, 118, 76, 16, 11</t>
   </si>
   <si>
-    <t xml:space="preserve">24, 130, 128, 108, 70, 19, 26, 64, 109, 114, 5, 126, 69, 107, 46, 47, 67, 97, 58, 125, 90, 92, 124, 80, 7, 4, 44, 32, 104, 65, 2, 82, 78, 57, 77, 45, 11, 110, 54, 102, 73, 96, 8, 14, 23, 53, 60, 18, 39, 20, 55, 16, 50, 63, 61, 112, 35, 103, 30, 115, 49, 75, 91, 122, 29, 83, 89, 85, 48, 101, 99, 66, 21, 51, 84, 3, 28, 100, 94, 34, 12, 87, 25, 95, 15, 17, 27, 68, 106, 56, 31, 33, 6, 1, 13, 105, 121, 36, 127, 116, 43, 9, 118, 10, 72, 93, 88, 117, 59, 123, 52, 74, 81, 41, 79, 129, 37, 98, 86, 119, 40, 113, 42, 111, 62, 22, 71, 38, 120, 76</t>
+    <t xml:space="preserve">95, 83, 69, 113, 115, 40, 111, 38, 77, 114, 76, 122, 39, 1, 129, 33, 50, 127, 42, 97, 120, 44, 25, 37, 3, 121, 56, 78, 13, 48, 94, 63, 101, 32, 104, 81, 7, 86, 51, 108, 28, 35, 68, 80, 6, 30, 49, 58, 11, 67, 91, 46, 61, 21, 12, 100, 92, 9, 55, 66, 31, 126, 52, 116, 36, 87, 41, 29, 47, 96, 53, 59, 85, 24, 18, 19, 8, 123, 45, 107, 93, 119, 71, 103, 54, 73, 4, 23, 130, 74, 62, 10, 57, 109, 5, 105, 20, 17, 60, 128, 106, 82, 27, 88, 75, 64, 34, 112, 124, 22, 2, 65, 117, 99, 89, 79, 26, 16, 98, 90, 84, 102, 70, 110, 72, 43, 15, 118, 14, 125</t>
   </si>
   <si>
-    <t xml:space="preserve">90, 24, 115, 75, 103, 35, 60, 2, 63, 42, 119, 95, 11, 112, 79, 62, 49, 73, 57, 109, 41, 93, 89, 113, 7, 12, 130, 101, 64, 17, 9, 99, 15, 68, 96, 43, 105, 54, 76, 100, 10, 92, 36, 107, 67, 14, 3, 80, 104, 123, 52, 78, 111, 30, 44, 88, 91, 50, 69, 26, 110, 22, 31, 32, 39, 29, 126, 56, 53, 97, 23, 21, 59, 5, 83, 102, 8, 55, 72, 20, 40, 27, 74, 58, 127, 4, 128, 45, 71, 19, 124, 118, 47, 25, 48, 46, 85, 125, 122, 77, 87, 6, 61, 116, 82, 34, 33, 70, 51, 66, 120, 13, 98, 114, 129, 28, 108, 16, 81, 121, 106, 84, 117, 37, 86, 18, 38, 65, 1, 94</t>
+    <t xml:space="preserve">47, 24, 39, 4, 81, 18, 98, 83, 65, 129, 68, 96, 103, 48, 36, 51, 95, 25, 114, 80, 86, 121, 92, 52, 59, 74, 14, 78, 93, 49, 64, 31, 60, 109, 91, 34, 71, 118, 107, 15, 90, 97, 130, 38, 12, 42, 123, 1, 87, 8, 100, 124, 46, 57, 22, 45, 73, 11, 125, 41, 5, 112, 94, 21, 85, 28, 79, 30, 122, 37, 76, 23, 69, 3, 17, 115, 29, 33, 50, 2, 89, 56, 104, 9, 77, 99, 66, 20, 13, 62, 35, 19, 55, 7, 67, 116, 32, 10, 120, 82, 40, 54, 27, 63, 111, 6, 26, 43, 88, 128, 70, 113, 108, 84, 75, 16, 61, 102, 44, 105, 72, 58, 53, 101, 110, 117, 106, 126, 119, 127</t>
   </si>
   <si>
-    <t xml:space="preserve">39, 48, 82, 3, 62, 11, 108, 79, 16, 109, 49, 40, 115, 21, 35, 123, 32, 85, 124, 29, 72, 64, 34, 110, 57, 28, 116, 59, 81, 76, 37, 93, 8, 60, 27, 117, 43, 67, 14, 19, 111, 98, 97, 78, 88, 15, 38, 1, 75, 65, 101, 10, 55, 86, 128, 107, 69, 25, 83, 31, 96, 66, 22, 102, 77, 71, 121, 56, 24, 119, 70, 51, 95, 5, 112, 104, 6, 74, 17, 52, 114, 105, 129, 130, 20, 41, 47, 7, 84, 12, 33, 2, 91, 18, 87, 113, 58, 13, 68, 99, 26, 44, 73, 126, 106, 36, 120, 53, 4, 118, 54, 100, 30, 23, 80, 92, 125, 46, 9, 94, 90, 122, 127, 42, 45, 61, 89, 50, 103, 63</t>
+    <t xml:space="preserve">42, 122, 28, 22, 104, 109, 17, 3, 91, 33, 29, 65, 16, 71, 111, 59, 92, 27, 38, 53, 2, 94, 43, 126, 25, 103, 54, 115, 62, 18, 23, 55, 35, 79, 106, 83, 98, 77, 97, 70, 6, 56, 100, 20, 63, 32, 108, 72, 121, 82, 85, 30, 120, 110, 68, 81, 19, 113, 21, 67, 11, 96, 52, 7, 40, 125, 74, 129, 90, 128, 105, 10, 26, 31, 46, 119, 37, 80, 127, 107, 87, 12, 51, 15, 93, 9, 69, 89, 13, 78, 88, 48, 47, 60, 95, 76, 86, 45, 49, 39, 5, 118, 102, 8, 123, 116, 73, 130, 58, 1, 50, 44, 34, 36, 114, 61, 75, 112, 117, 66, 14, 84, 24, 124, 4, 101, 64, 41, 57, 99</t>
   </si>
   <si>
-    <t xml:space="preserve">95, 13, 94, 1, 49, 125, 59, 119, 126, 117, 40, 50, 62, 85, 121, 21, 127, 122, 124, 37, 48, 16, 75, 64, 39, 90, 32, 25, 57, 34, 9, 22, 97, 55, 26, 52, 66, 114, 7, 106, 78, 110, 68, 116, 120, 29, 41, 12, 15, 107, 128, 56, 67, 28, 115, 45, 76, 70, 17, 36, 111, 92, 18, 98, 20, 11, 103, 109, 72, 101, 74, 27, 93, 96, 88, 54, 24, 129, 35, 10, 102, 60, 47, 53, 130, 79, 3, 6, 113, 112, 65, 31, 30, 69, 99, 63, 43, 84, 38, 86, 44, 87, 42, 108, 8, 51, 118, 83, 71, 81, 4, 23, 46, 61, 19, 123, 104, 2, 80, 82, 100, 91, 73, 77, 89, 5, 33, 58, 14</t>
+    <t xml:space="preserve">116, 33, 42, 103, 57, 83, 48, 34, 5, 58, 7, 25, 71, 14, 50, 125, 3, 90, 127, 85, 61, 110, 36, 80, 75, 86, 79, 91, 12, 10, 97, 55, 39, 106, 126, 22, 19, 63, 84, 67, 31, 51, 122, 107, 45, 129, 54, 78, 89, 64, 26, 59, 8, 65, 74, 6, 69, 28, 93, 62, 53, 123, 29, 4, 95, 101, 130, 108, 37, 117, 72, 49, 44, 119, 98, 66, 70, 104, 23, 81, 87, 15, 82, 128, 56, 111, 1, 30, 21, 118, 73, 40, 77, 16, 43, 9, 24, 113, 99, 124, 47, 60, 17, 94, 18, 52, 112, 115, 100, 46, 41, 13, 76, 20, 121, 109, 11, 114, 88, 35, 2, 27, 92, 96, 68, 102, 32, 120, 38</t>
   </si>
   <si>
-    <t xml:space="preserve">51, 93, 42, 97, 8, 49, 83, 24, 47, 81, 87, 36, 50, 52, 10, 112, 25, 89, 69, 9, 43, 31, 108, 45, 37, 54, 124, 70, 21, 6, 86, 127, 57, 56, 125, 76, 91, 17, 4, 107, 126, 123, 32, 78, 79, 40, 65, 55, 103, 72, 94, 30, 96, 116, 63, 26, 73, 46, 15, 120, 38, 59, 95, 98, 67, 88, 129, 7, 61, 13, 53, 128, 75, 1, 130, 33, 28, 92, 18, 29, 19, 104, 23, 16, 110, 27, 85, 11, 68, 60, 80, 64, 82, 35, 90, 34, 102, 115, 84, 71, 99, 44, 39, 101, 66, 41, 58, 3, 74, 100, 122, 119, 2, 114, 77, 121, 5, 14, 62, 48, 118, 113, 12, 111, 20, 117, 109, 22</t>
+    <t xml:space="preserve">121, 6, 23, 46, 86, 66, 14, 114, 94, 53, 34, 93, 127, 97, 17, 19, 10, 9, 96, 84, 25, 116, 92, 52, 78, 37, 24, 65, 119, 82, 81, 77, 4, 70, 22, 41, 57, 64, 38, 39, 47, 79, 113, 63, 74, 130, 29, 3, 109, 75, 100, 73, 71, 1, 91, 124, 87, 62, 5, 33, 31, 2, 126, 69, 103, 20, 12, 27, 129, 44, 104, 60, 72, 50, 59, 51, 85, 56, 36, 68, 58, 117, 115, 123, 43, 15, 98, 28, 7, 108, 49, 95, 67, 122, 118, 11, 102, 88, 35, 55, 90, 40, 30, 83, 42, 54, 8, 13, 110, 18, 89, 16, 120, 32, 21, 125, 99, 107, 76, 80, 112, 48, 45, 101, 128, 61, 26, 111</t>
   </si>
   <si>
-    <t xml:space="preserve">34, 21, 86, 15, 90, 117, 120, 5, 128, 125, 91, 103, 100, 108, 119, 78, 29, 55, 3, 123, 67, 31, 17, 19, 79, 71, 81, 85, 13, 10, 46, 37, 93, 126, 52, 20, 112, 88, 121, 94, 50, 76, 25, 127, 12, 113, 35, 109, 89, 36, 38, 27, 56, 70, 6, 84, 9, 51, 118, 18, 95, 73, 32, 122, 64, 110, 2, 82, 30, 111, 54, 59, 104, 107, 124, 58, 77, 65, 115, 75, 44, 114, 72, 66, 57, 24, 61, 83, 62, 69, 92, 28, 99, 53, 23, 87, 102, 22, 8, 116, 45, 63, 33, 4, 26, 7, 74, 68, 80, 11, 14, 1, 16</t>
+    <t xml:space="preserve">62, 121, 112, 73, 65, 61, 22, 94, 109, 83, 7, 1, 15, 71, 70, 30, 2, 5, 17, 31, 81, 118, 68, 63, 50, 87, 72, 80, 117, 91, 25, 85, 20, 78, 16, 108, 33, 82, 111, 107, 4, 66, 35, 53, 125, 76, 59, 27, 32, 113, 55, 21, 84, 102, 103, 8, 75, 3, 26, 12, 115, 119, 127, 9, 37, 58, 46, 123, 126, 29, 99, 11, 57, 95, 45, 24, 88, 116, 18, 86, 110, 23, 6, 90, 100, 92, 19, 64, 124, 52, 104, 77, 74, 128, 54, 28, 114, 93, 34, 56, 69, 120, 51, 36, 13, 14, 79, 38, 89, 10, 122, 67, 44</t>
   </si>
   <si>
     <t xml:space="preserve">Sobra de Mudas</t>
@@ -399,7 +399,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="B2" t="n">
         <v>236</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="B3" t="n">
         <v>236</v>
@@ -427,10 +427,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="B4" t="n">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -441,7 +441,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B5" t="n">
         <v>236</v>
@@ -455,10 +455,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="B6" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -469,10 +469,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B7" t="n">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B8" t="n">
         <v>110</v>
@@ -497,10 +497,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B9" t="n">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" t="n">
         <v>236</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B11" t="n">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n">
         <v>236</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="B13" t="n">
         <v>236</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
         <v>236</v>
@@ -581,10 +581,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B15" t="n">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B16" t="n">
         <v>236</v>
@@ -609,10 +609,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B17" t="n">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="B18" t="n">
         <v>236</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B19" t="n">
         <v>236</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B20" t="n">
         <v>236</v>
@@ -665,10 +665,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="B21" t="n">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -679,10 +679,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -693,10 +693,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B23" t="n">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n">
         <v>236</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B25" t="n">
         <v>236</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B26" t="n">
         <v>236</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="B27" t="n">
         <v>236</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B28" t="n">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B29" t="n">
         <v>236</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="B30" t="n">
         <v>236</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="B31" t="n">
         <v>236</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="B32" t="n">
         <v>236</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="B33" t="n">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B34" t="n">
         <v>236</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n">
         <v>236</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B36" t="n">
         <v>236</v>
@@ -889,10 +889,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B37" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="B38" t="n">
         <v>236</v>
@@ -917,10 +917,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="B39" t="n">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B40" t="n">
         <v>236</v>
@@ -945,10 +945,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B41" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B42" t="n">
         <v>236</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="B43" t="n">
         <v>236</v>
@@ -987,10 +987,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B44" t="n">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B45" t="n">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="B46" t="n">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B47" t="n">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B48" t="n">
         <v>236</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="B49" t="n">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="B50" t="n">
         <v>236</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="B51" t="n">
         <v>236</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B52" t="n">
-        <v>159</v>
+        <v>236</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -1113,10 +1113,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B53" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B54" t="n">
         <v>236</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B55" t="n">
         <v>236</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="B56" t="n">
         <v>236</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B57" t="n">
         <v>236</v>
@@ -1183,10 +1183,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B58" t="n">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="B59" t="n">
         <v>236</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B60" t="n">
         <v>236</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B61" t="n">
         <v>236</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="B62" t="n">
         <v>236</v>
@@ -1253,10 +1253,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="B63" t="n">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="B64" t="n">
         <v>236</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B65" t="n">
         <v>236</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="B66" t="n">
         <v>236</v>
@@ -1309,10 +1309,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B67" t="n">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B68" t="n">
         <v>236</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B69" t="n">
         <v>236</v>
@@ -1351,10 +1351,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B70" t="n">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="B71" t="n">
-        <v>218</v>
+        <v>110</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="B72" t="n">
         <v>236</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B73" t="n">
         <v>236</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B74" t="n">
         <v>236</v>
@@ -1421,10 +1421,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B75" t="n">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B76" t="n">
         <v>236</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B77" t="n">
         <v>236</v>
@@ -1463,10 +1463,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="B78" t="n">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="B79" t="n">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="B80" t="n">
         <v>236</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B81" t="n">
         <v>236</v>
@@ -1519,10 +1519,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B82" t="n">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -1533,10 +1533,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B83" t="n">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -1547,10 +1547,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B84" t="n">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
@@ -1561,10 +1561,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B85" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C85" t="n">
         <v>1</v>
@@ -1575,10 +1575,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B86" t="n">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
@@ -1589,10 +1589,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="B87" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
@@ -1603,10 +1603,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="B88" t="n">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C88" t="n">
         <v>1</v>
@@ -1617,10 +1617,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="B89" t="n">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
@@ -1631,10 +1631,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="B90" t="n">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="B91" t="n">
         <v>236</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="B92" t="n">
         <v>236</v>
@@ -1673,10 +1673,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="B93" t="n">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="B94" t="n">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
@@ -1701,10 +1701,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="B95" t="n">
-        <v>236</v>
+        <v>116</v>
       </c>
       <c r="C95" t="n">
         <v>1</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B96" t="n">
         <v>236</v>
@@ -1729,10 +1729,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B97" t="n">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="B98" t="n">
         <v>236</v>
@@ -1757,10 +1757,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="B99" t="n">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B100" t="n">
         <v>236</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B101" t="n">
         <v>236</v>
@@ -1799,10 +1799,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B102" t="n">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B103" t="n">
         <v>236</v>
@@ -1827,10 +1827,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="B104" t="n">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B105" t="n">
         <v>236</v>
@@ -1855,10 +1855,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B106" t="n">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="B107" t="n">
         <v>236</v>
@@ -1883,10 +1883,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B109" t="n">
         <v>236</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="B110" t="n">
         <v>236</v>
@@ -1925,10 +1925,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="B111" t="n">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="B113" t="n">
         <v>236</v>
@@ -1967,10 +1967,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="B114" t="n">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="B115" t="n">
         <v>236</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="B116" t="n">
         <v>236</v>
@@ -2009,10 +2009,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
+        <v>41</v>
+      </c>
+      <c r="B117" t="n">
         <v>110</v>
-      </c>
-      <c r="B117" t="n">
-        <v>236</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
@@ -2023,10 +2023,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="B118" t="n">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C118" t="n">
         <v>1</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B119" t="n">
         <v>236</v>
@@ -2051,10 +2051,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B120" t="n">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B121" t="n">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
@@ -2079,10 +2079,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B122" t="n">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
@@ -2093,10 +2093,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="B123" t="n">
-        <v>218</v>
+        <v>110</v>
       </c>
       <c r="C123" t="n">
         <v>1</v>
@@ -2107,10 +2107,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="B124" t="n">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="B125" t="n">
         <v>236</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="B126" t="n">
         <v>236</v>
@@ -2149,10 +2149,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="B127" t="n">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="B128" t="n">
         <v>236</v>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="B129" t="n">
         <v>236</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="B130" t="n">
         <v>236</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="B131" t="n">
         <v>236</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="B132" t="n">
         <v>220</v>
@@ -2233,10 +2233,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="B133" t="n">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="C133" t="n">
         <v>2</v>
@@ -2247,10 +2247,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="B134" t="n">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="C134" t="n">
         <v>2</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B135" t="n">
         <v>220</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="B136" t="n">
         <v>220</v>
@@ -2289,10 +2289,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B137" t="n">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="C137" t="n">
         <v>2</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="B138" t="n">
         <v>220</v>
@@ -2317,10 +2317,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B139" t="n">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="C139" t="n">
         <v>2</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="B140" t="n">
         <v>220</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="B142" t="n">
         <v>220</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B143" t="n">
         <v>220</v>
@@ -2387,10 +2387,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B144" t="n">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="C144" t="n">
         <v>2</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="B145" t="n">
         <v>220</v>
@@ -2415,10 +2415,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="B146" t="n">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="C146" t="n">
         <v>2</v>
@@ -2429,10 +2429,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B147" t="n">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="C147" t="n">
         <v>2</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B148" t="n">
         <v>220</v>
@@ -2457,10 +2457,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B149" t="n">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="C149" t="n">
         <v>2</v>
@@ -2471,10 +2471,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B150" t="n">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="C150" t="n">
         <v>2</v>
@@ -2485,10 +2485,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="B151" t="n">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="C151" t="n">
         <v>2</v>
@@ -2499,10 +2499,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="B152" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C152" t="n">
         <v>2</v>
@@ -2513,10 +2513,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="B153" t="n">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="C153" t="n">
         <v>2</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="B154" t="n">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="C154" t="n">
         <v>2</v>
@@ -2541,10 +2541,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B155" t="n">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C155" t="n">
         <v>2</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B156" t="n">
         <v>220</v>
@@ -2569,10 +2569,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="B157" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="C157" t="n">
         <v>2</v>
@@ -2583,10 +2583,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B158" t="n">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="C158" t="n">
         <v>2</v>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B159" t="n">
         <v>220</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="B160" t="n">
         <v>220</v>
@@ -2625,10 +2625,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B161" t="n">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="C161" t="n">
         <v>2</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="B162" t="n">
         <v>220</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B163" t="n">
         <v>220</v>
@@ -2667,10 +2667,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B164" t="n">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="C164" t="n">
         <v>2</v>
@@ -2681,7 +2681,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B165" t="n">
         <v>220</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B166" t="n">
         <v>220</v>
@@ -2709,10 +2709,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="B167" t="n">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="C167" t="n">
         <v>2</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B168" t="n">
         <v>220</v>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B169" t="n">
         <v>220</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B170" t="n">
         <v>220</v>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B171" t="n">
         <v>220</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B172" t="n">
         <v>220</v>
@@ -2793,10 +2793,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="B173" t="n">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="C173" t="n">
         <v>2</v>
@@ -2807,10 +2807,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B174" t="n">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="C174" t="n">
         <v>2</v>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="B175" t="n">
         <v>220</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B176" t="n">
         <v>220</v>
@@ -2849,10 +2849,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B177" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C177" t="n">
         <v>2</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B178" t="n">
         <v>94</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B179" t="n">
         <v>220</v>
@@ -2891,10 +2891,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B180" t="n">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="C180" t="n">
         <v>2</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B181" t="n">
         <v>220</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="B182" t="n">
         <v>220</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B183" t="n">
         <v>220</v>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B184" t="n">
         <v>220</v>
@@ -2961,7 +2961,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="B185" t="n">
         <v>220</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="B186" t="n">
         <v>220</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B187" t="n">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="C187" t="n">
         <v>2</v>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="B188" t="n">
         <v>220</v>
@@ -3017,10 +3017,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="B189" t="n">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="C189" t="n">
         <v>2</v>
@@ -3031,10 +3031,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B190" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C190" t="n">
         <v>2</v>
@@ -3045,7 +3045,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="B191" t="n">
         <v>220</v>
@@ -3059,10 +3059,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B192" t="n">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="C192" t="n">
         <v>2</v>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="B193" t="n">
         <v>220</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="B194" t="n">
         <v>220</v>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B195" t="n">
         <v>220</v>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B196" t="n">
         <v>220</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B197" t="n">
         <v>220</v>
@@ -3143,10 +3143,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="B198" t="n">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="C198" t="n">
         <v>2</v>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="B199" t="n">
         <v>220</v>
@@ -3171,7 +3171,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B200" t="n">
         <v>94</v>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B201" t="n">
         <v>94</v>
@@ -3199,10 +3199,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B202" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C202" t="n">
         <v>2</v>
@@ -3213,10 +3213,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B203" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C203" t="n">
         <v>2</v>
@@ -3227,7 +3227,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="B204" t="n">
         <v>220</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B205" t="n">
         <v>220</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="B206" t="n">
         <v>220</v>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B207" t="n">
         <v>220</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B208" t="n">
         <v>220</v>
@@ -3297,10 +3297,10 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B209" t="n">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="C209" t="n">
         <v>2</v>
@@ -3311,10 +3311,10 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="B210" t="n">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="C210" t="n">
         <v>2</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="B211" t="n">
         <v>220</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B212" t="n">
         <v>220</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="B213" t="n">
         <v>220</v>
@@ -3367,10 +3367,10 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B214" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C214" t="n">
         <v>2</v>
@@ -3381,10 +3381,10 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B215" t="n">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="C215" t="n">
         <v>2</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B216" t="n">
         <v>220</v>
@@ -3409,7 +3409,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="B217" t="n">
         <v>220</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B218" t="n">
         <v>220</v>
@@ -3437,10 +3437,10 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="B219" t="n">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="C219" t="n">
         <v>2</v>
@@ -3451,10 +3451,10 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="B220" t="n">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C220" t="n">
         <v>2</v>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B221" t="n">
         <v>220</v>
@@ -3479,10 +3479,10 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B222" t="n">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="C222" t="n">
         <v>2</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B223" t="n">
         <v>220</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B224" t="n">
         <v>220</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="B225" t="n">
         <v>220</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B226" t="n">
         <v>220</v>
@@ -3563,10 +3563,10 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="B228" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="C228" t="n">
         <v>2</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B229" t="n">
         <v>220</v>
@@ -3591,10 +3591,10 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="B230" t="n">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="C230" t="n">
         <v>2</v>
@@ -3605,10 +3605,10 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B231" t="n">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="C231" t="n">
         <v>2</v>
@@ -3619,10 +3619,10 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="B232" t="n">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C232" t="n">
         <v>2</v>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="B233" t="n">
         <v>220</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="B234" t="n">
         <v>220</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="B235" t="n">
         <v>220</v>
@@ -3675,10 +3675,10 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B236" t="n">
-        <v>143</v>
+        <v>220</v>
       </c>
       <c r="C236" t="n">
         <v>2</v>
@@ -3689,7 +3689,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B237" t="n">
         <v>220</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="B238" t="n">
         <v>220</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B239" t="n">
         <v>220</v>
@@ -3731,10 +3731,10 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="B240" t="n">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="C240" t="n">
         <v>2</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="B241" t="n">
         <v>220</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="B242" t="n">
         <v>220</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B243" t="n">
         <v>220</v>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="B244" t="n">
         <v>220</v>
@@ -3801,10 +3801,10 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="B245" t="n">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="C245" t="n">
         <v>2</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B246" t="n">
         <v>220</v>
@@ -3829,10 +3829,10 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="B247" t="n">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="C247" t="n">
         <v>2</v>
@@ -3843,10 +3843,10 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B248" t="n">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="C248" t="n">
         <v>2</v>
@@ -3857,10 +3857,10 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="B249" t="n">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="C249" t="n">
         <v>2</v>
@@ -3871,10 +3871,10 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B250" t="n">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="C250" t="n">
         <v>2</v>
@@ -3885,7 +3885,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="B251" t="n">
         <v>220</v>
@@ -3899,10 +3899,10 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="B252" t="n">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="C252" t="n">
         <v>2</v>
@@ -3913,7 +3913,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B253" t="n">
         <v>220</v>
@@ -3927,10 +3927,10 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="B254" t="n">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="C254" t="n">
         <v>2</v>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B255" t="n">
         <v>220</v>
@@ -3955,10 +3955,10 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B256" t="n">
-        <v>220</v>
+        <v>143</v>
       </c>
       <c r="C256" t="n">
         <v>2</v>
@@ -3969,10 +3969,10 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B257" t="n">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="C257" t="n">
         <v>2</v>
@@ -3983,10 +3983,10 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="B258" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C258" t="n">
         <v>2</v>
@@ -3997,10 +3997,10 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="B259" t="n">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="C259" t="n">
         <v>2</v>
@@ -4011,10 +4011,10 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="B260" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C260" t="n">
         <v>2</v>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="B261" t="n">
         <v>220</v>
@@ -4039,10 +4039,10 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="B262" t="n">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="C262" t="n">
         <v>3</v>
@@ -4067,10 +4067,10 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="B264" t="n">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="C264" t="n">
         <v>3</v>
@@ -4081,7 +4081,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="B265" t="n">
         <v>204</v>
@@ -4095,10 +4095,10 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B266" t="n">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="C266" t="n">
         <v>3</v>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B267" t="n">
         <v>204</v>
@@ -4123,7 +4123,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="B268" t="n">
         <v>78</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="B269" t="n">
         <v>204</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B270" t="n">
         <v>204</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="B271" t="n">
         <v>78</v>
@@ -4179,10 +4179,10 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="B272" t="n">
-        <v>204</v>
+        <v>141</v>
       </c>
       <c r="C272" t="n">
         <v>3</v>
@@ -4193,10 +4193,10 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B273" t="n">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="C273" t="n">
         <v>3</v>
@@ -4207,10 +4207,10 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="B274" t="n">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="C274" t="n">
         <v>3</v>
@@ -4221,10 +4221,10 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="B275" t="n">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="C275" t="n">
         <v>3</v>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="B276" t="n">
         <v>204</v>
@@ -4249,7 +4249,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B277" t="n">
         <v>204</v>
@@ -4263,10 +4263,10 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="B278" t="n">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="C278" t="n">
         <v>3</v>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B279" t="n">
         <v>204</v>
@@ -4291,7 +4291,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="B280" t="n">
         <v>204</v>
@@ -4305,7 +4305,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B281" t="n">
         <v>204</v>
@@ -4319,10 +4319,10 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B282" t="n">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="C282" t="n">
         <v>3</v>
@@ -4333,10 +4333,10 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B283" t="n">
-        <v>204</v>
+        <v>84</v>
       </c>
       <c r="C283" t="n">
         <v>3</v>
@@ -4347,7 +4347,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B284" t="n">
         <v>204</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="B285" t="n">
         <v>204</v>
@@ -4375,10 +4375,10 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B286" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C286" t="n">
         <v>3</v>
@@ -4389,7 +4389,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="B287" t="n">
         <v>204</v>
@@ -4403,10 +4403,10 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="B288" t="n">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="C288" t="n">
         <v>3</v>
@@ -4417,10 +4417,10 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="B289" t="n">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="C289" t="n">
         <v>3</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="B290" t="n">
         <v>204</v>
@@ -4445,10 +4445,10 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B291" t="n">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="C291" t="n">
         <v>3</v>
@@ -4459,7 +4459,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="B292" t="n">
         <v>204</v>
@@ -4473,10 +4473,10 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="B293" t="n">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="C293" t="n">
         <v>3</v>
@@ -4487,10 +4487,10 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B294" t="n">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="C294" t="n">
         <v>3</v>
@@ -4501,10 +4501,10 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="B295" t="n">
-        <v>141</v>
+        <v>204</v>
       </c>
       <c r="C295" t="n">
         <v>3</v>
@@ -4515,10 +4515,10 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B296" t="n">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="C296" t="n">
         <v>3</v>
@@ -4529,10 +4529,10 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B297" t="n">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="C297" t="n">
         <v>3</v>
@@ -4543,10 +4543,10 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B298" t="n">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c r="C298" t="n">
         <v>3</v>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="B299" t="n">
         <v>204</v>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="B300" t="n">
         <v>204</v>
@@ -4585,10 +4585,10 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="B301" t="n">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="C301" t="n">
         <v>3</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="B302" t="n">
         <v>204</v>
@@ -4613,10 +4613,10 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B303" t="n">
-        <v>204</v>
+        <v>69</v>
       </c>
       <c r="C303" t="n">
         <v>3</v>
@@ -4627,10 +4627,10 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="B304" t="n">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="C304" t="n">
         <v>3</v>
@@ -4641,10 +4641,10 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="B305" t="n">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="C305" t="n">
         <v>3</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="B306" t="n">
         <v>204</v>
@@ -4669,10 +4669,10 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B307" t="n">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="C307" t="n">
         <v>3</v>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="B308" t="n">
         <v>204</v>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="B309" t="n">
         <v>204</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B310" t="n">
         <v>204</v>
@@ -4725,7 +4725,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="B311" t="n">
         <v>204</v>
@@ -4739,10 +4739,10 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B312" t="n">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="C312" t="n">
         <v>3</v>
@@ -4753,10 +4753,10 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="B313" t="n">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C313" t="n">
         <v>3</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="B314" t="n">
         <v>204</v>
@@ -4781,10 +4781,10 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B315" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C315" t="n">
         <v>3</v>
@@ -4795,10 +4795,10 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B316" t="n">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="C316" t="n">
         <v>3</v>
@@ -4809,10 +4809,10 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="B317" t="n">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="C317" t="n">
         <v>3</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B318" t="n">
         <v>204</v>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B319" t="n">
         <v>204</v>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B320" t="n">
         <v>204</v>
@@ -4865,10 +4865,10 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B321" t="n">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="C321" t="n">
         <v>3</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="B322" t="n">
         <v>204</v>
@@ -4893,7 +4893,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="B323" t="n">
         <v>204</v>
@@ -4907,10 +4907,10 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="B324" t="n">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="C324" t="n">
         <v>3</v>
@@ -4921,7 +4921,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B325" t="n">
         <v>204</v>
@@ -4935,10 +4935,10 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="B326" t="n">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="C326" t="n">
         <v>3</v>
@@ -4949,7 +4949,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B327" t="n">
         <v>204</v>
@@ -4963,7 +4963,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="B328" t="n">
         <v>204</v>
@@ -4977,10 +4977,10 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B329" t="n">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C329" t="n">
         <v>3</v>
@@ -4991,10 +4991,10 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="B330" t="n">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="C330" t="n">
         <v>3</v>
@@ -5005,10 +5005,10 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B331" t="n">
-        <v>69</v>
+        <v>180</v>
       </c>
       <c r="C331" t="n">
         <v>3</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="B332" t="n">
         <v>204</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B333" t="n">
         <v>204</v>
@@ -5047,10 +5047,10 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B334" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C334" t="n">
         <v>3</v>
@@ -5061,7 +5061,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B335" t="n">
         <v>204</v>
@@ -5075,7 +5075,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="B336" t="n">
         <v>204</v>
@@ -5089,7 +5089,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B337" t="n">
         <v>204</v>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B338" t="n">
         <v>204</v>
@@ -5117,7 +5117,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B339" t="n">
         <v>204</v>
@@ -5131,10 +5131,10 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B340" t="n">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="C340" t="n">
         <v>3</v>
@@ -5145,7 +5145,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B341" t="n">
         <v>204</v>
@@ -5159,10 +5159,10 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="B342" t="n">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="C342" t="n">
         <v>3</v>
@@ -5173,7 +5173,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B343" t="n">
         <v>204</v>
@@ -5187,7 +5187,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="B344" t="n">
         <v>204</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="B345" t="n">
         <v>204</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="B346" t="n">
         <v>204</v>
@@ -5229,7 +5229,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="B347" t="n">
         <v>204</v>
@@ -5243,10 +5243,10 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="B348" t="n">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="C348" t="n">
         <v>3</v>
@@ -5257,10 +5257,10 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B349" t="n">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="C349" t="n">
         <v>3</v>
@@ -5271,10 +5271,10 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="B350" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C350" t="n">
         <v>3</v>
@@ -5285,7 +5285,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B351" t="n">
         <v>204</v>
@@ -5299,10 +5299,10 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="B352" t="n">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="C352" t="n">
         <v>3</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="B353" t="n">
         <v>204</v>
@@ -5327,10 +5327,10 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B354" t="n">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="C354" t="n">
         <v>3</v>
@@ -5341,7 +5341,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B355" t="n">
         <v>204</v>
@@ -5355,10 +5355,10 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B356" t="n">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="C356" t="n">
         <v>3</v>
@@ -5369,7 +5369,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="B357" t="n">
         <v>204</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="B358" t="n">
         <v>204</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="B359" t="n">
         <v>204</v>
@@ -5411,10 +5411,10 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B360" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C360" t="n">
         <v>3</v>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B361" t="n">
         <v>204</v>
@@ -5439,10 +5439,10 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="B362" t="n">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="C362" t="n">
         <v>3</v>
@@ -5453,7 +5453,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B363" t="n">
         <v>204</v>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B364" t="n">
         <v>204</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="B365" t="n">
         <v>204</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="B366" t="n">
         <v>204</v>
@@ -5509,7 +5509,7 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B367" t="n">
         <v>204</v>
@@ -5523,7 +5523,7 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B368" t="n">
         <v>204</v>
@@ -5537,10 +5537,10 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B369" t="n">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="C369" t="n">
         <v>3</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B370" t="n">
         <v>204</v>
@@ -5565,10 +5565,10 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="B371" t="n">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="C371" t="n">
         <v>3</v>
@@ -5579,10 +5579,10 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="B372" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C372" t="n">
         <v>3</v>
@@ -5593,7 +5593,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="B373" t="n">
         <v>204</v>
@@ -5607,10 +5607,10 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B374" t="n">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="C374" t="n">
         <v>3</v>
@@ -5621,7 +5621,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="B375" t="n">
         <v>204</v>
@@ -5635,10 +5635,10 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="B376" t="n">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="C376" t="n">
         <v>3</v>
@@ -5649,7 +5649,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B377" t="n">
         <v>204</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="B378" t="n">
         <v>204</v>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="B379" t="n">
         <v>204</v>
@@ -5691,10 +5691,10 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="B380" t="n">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="C380" t="n">
         <v>3</v>
@@ -5705,10 +5705,10 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B381" t="n">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="C381" t="n">
         <v>3</v>
@@ -5719,10 +5719,10 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="B382" t="n">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="C382" t="n">
         <v>3</v>
@@ -5733,7 +5733,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B383" t="n">
         <v>204</v>
@@ -5747,10 +5747,10 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="B384" t="n">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="C384" t="n">
         <v>3</v>
@@ -5761,10 +5761,10 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="B385" t="n">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="C385" t="n">
         <v>3</v>
@@ -5775,7 +5775,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B386" t="n">
         <v>204</v>
@@ -5789,7 +5789,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="B387" t="n">
         <v>204</v>
@@ -5803,10 +5803,10 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="B388" t="n">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="C388" t="n">
         <v>3</v>
@@ -5817,7 +5817,7 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="B389" t="n">
         <v>204</v>
@@ -5831,7 +5831,7 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="B390" t="n">
         <v>204</v>
@@ -5845,7 +5845,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="B391" t="n">
         <v>204</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B392" t="n">
         <v>62</v>
@@ -5873,10 +5873,10 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="B393" t="n">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="C393" t="n">
         <v>4</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="B394" t="n">
         <v>188</v>
@@ -5901,7 +5901,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B395" t="n">
         <v>188</v>
@@ -5915,7 +5915,7 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="B396" t="n">
         <v>188</v>
@@ -5929,7 +5929,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="B397" t="n">
         <v>188</v>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="B398" t="n">
         <v>188</v>
@@ -5957,7 +5957,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B399" t="n">
         <v>188</v>
@@ -5971,7 +5971,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B400" t="n">
         <v>188</v>
@@ -5985,7 +5985,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="B401" t="n">
         <v>188</v>
@@ -5999,10 +5999,10 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B402" t="n">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="C402" t="n">
         <v>4</v>
@@ -6013,10 +6013,10 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B403" t="n">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="C403" t="n">
         <v>4</v>
@@ -6027,7 +6027,7 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="B404" t="n">
         <v>188</v>
@@ -6041,10 +6041,10 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="B405" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C405" t="n">
         <v>4</v>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="B406" t="n">
         <v>188</v>
@@ -6069,10 +6069,10 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="B407" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C407" t="n">
         <v>4</v>
@@ -6083,7 +6083,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="B408" t="n">
         <v>188</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="B409" t="n">
         <v>188</v>
@@ -6111,10 +6111,10 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="B410" t="n">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="C410" t="n">
         <v>4</v>
@@ -6125,10 +6125,10 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B411" t="n">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="C411" t="n">
         <v>4</v>
@@ -6139,10 +6139,10 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="B412" t="n">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="C412" t="n">
         <v>4</v>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="B413" t="n">
         <v>188</v>
@@ -6167,10 +6167,10 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B414" t="n">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="C414" t="n">
         <v>4</v>
@@ -6181,7 +6181,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B415" t="n">
         <v>188</v>
@@ -6195,7 +6195,7 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B416" t="n">
         <v>188</v>
@@ -6209,10 +6209,10 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="B417" t="n">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C417" t="n">
         <v>4</v>
@@ -6223,7 +6223,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="B418" t="n">
         <v>188</v>
@@ -6237,10 +6237,10 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="B419" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C419" t="n">
         <v>4</v>
@@ -6251,7 +6251,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B420" t="n">
         <v>188</v>
@@ -6265,7 +6265,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="B421" t="n">
         <v>188</v>
@@ -6279,10 +6279,10 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B422" t="n">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="C422" t="n">
         <v>4</v>
@@ -6293,7 +6293,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="B423" t="n">
         <v>188</v>
@@ -6307,7 +6307,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B424" t="n">
         <v>188</v>
@@ -6321,10 +6321,10 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B425" t="n">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="C425" t="n">
         <v>4</v>
@@ -6335,10 +6335,10 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="B426" t="n">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="C426" t="n">
         <v>4</v>
@@ -6349,7 +6349,7 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="B427" t="n">
         <v>188</v>
@@ -6363,7 +6363,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="B428" t="n">
         <v>62</v>
@@ -6377,7 +6377,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B429" t="n">
         <v>188</v>
@@ -6391,10 +6391,10 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="B430" t="n">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="C430" t="n">
         <v>4</v>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B431" t="n">
         <v>188</v>
@@ -6419,7 +6419,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="B432" t="n">
         <v>188</v>
@@ -6433,10 +6433,10 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="B433" t="n">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="C433" t="n">
         <v>4</v>
@@ -6447,10 +6447,10 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B434" t="n">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="C434" t="n">
         <v>4</v>
@@ -6461,7 +6461,7 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="B435" t="n">
         <v>188</v>
@@ -6475,7 +6475,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="B436" t="n">
         <v>188</v>
@@ -6489,7 +6489,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B437" t="n">
         <v>188</v>
@@ -6503,10 +6503,10 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="B438" t="n">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="C438" t="n">
         <v>4</v>
@@ -6517,10 +6517,10 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="B439" t="n">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="C439" t="n">
         <v>4</v>
@@ -6531,10 +6531,10 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="B440" t="n">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="C440" t="n">
         <v>4</v>
@@ -6545,7 +6545,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B441" t="n">
         <v>188</v>
@@ -6559,10 +6559,10 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B442" t="n">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="C442" t="n">
         <v>4</v>
@@ -6573,10 +6573,10 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B443" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C443" t="n">
         <v>4</v>
@@ -6587,10 +6587,10 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="B444" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C444" t="n">
         <v>4</v>
@@ -6601,7 +6601,7 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B445" t="n">
         <v>188</v>
@@ -6615,10 +6615,10 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="B446" t="n">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="C446" t="n">
         <v>4</v>
@@ -6629,7 +6629,7 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="B447" t="n">
         <v>188</v>
@@ -6643,7 +6643,7 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B448" t="n">
         <v>188</v>
@@ -6657,7 +6657,7 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="B449" t="n">
         <v>188</v>
@@ -6671,7 +6671,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="B450" t="n">
         <v>188</v>
@@ -6685,10 +6685,10 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="B451" t="n">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="C451" t="n">
         <v>4</v>
@@ -6699,10 +6699,10 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="B452" t="n">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="C452" t="n">
         <v>4</v>
@@ -6713,10 +6713,10 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="B453" t="n">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="C453" t="n">
         <v>4</v>
@@ -6727,7 +6727,7 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B454" t="n">
         <v>188</v>
@@ -6741,7 +6741,7 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="B455" t="n">
         <v>188</v>
@@ -6755,10 +6755,10 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B456" t="n">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="C456" t="n">
         <v>4</v>
@@ -6769,10 +6769,10 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="B457" t="n">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C457" t="n">
         <v>4</v>
@@ -6783,10 +6783,10 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="B458" t="n">
-        <v>68</v>
+        <v>188</v>
       </c>
       <c r="C458" t="n">
         <v>4</v>
@@ -6797,10 +6797,10 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="B459" t="n">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="C459" t="n">
         <v>4</v>
@@ -6811,7 +6811,7 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="B460" t="n">
         <v>188</v>
@@ -6825,10 +6825,10 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B461" t="n">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="C461" t="n">
         <v>4</v>
@@ -6839,10 +6839,10 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="B462" t="n">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="C462" t="n">
         <v>4</v>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B463" t="n">
         <v>188</v>
@@ -6867,7 +6867,7 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="B464" t="n">
         <v>188</v>
@@ -6881,10 +6881,10 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B465" t="n">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="C465" t="n">
         <v>4</v>
@@ -6895,7 +6895,7 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="B466" t="n">
         <v>188</v>
@@ -6909,7 +6909,7 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B467" t="n">
         <v>188</v>
@@ -6923,10 +6923,10 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B468" t="n">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C468" t="n">
         <v>4</v>
@@ -6937,7 +6937,7 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B469" t="n">
         <v>188</v>
@@ -6951,7 +6951,7 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="B470" t="n">
         <v>188</v>
@@ -6965,7 +6965,7 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="B471" t="n">
         <v>188</v>
@@ -6979,7 +6979,7 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B472" t="n">
         <v>188</v>
@@ -6993,10 +6993,10 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="B473" t="n">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="C473" t="n">
         <v>4</v>
@@ -7007,10 +7007,10 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="B474" t="n">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="C474" t="n">
         <v>4</v>
@@ -7021,10 +7021,10 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="B475" t="n">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="C475" t="n">
         <v>4</v>
@@ -7035,7 +7035,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="B476" t="n">
         <v>188</v>
@@ -7049,10 +7049,10 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B477" t="n">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="C477" t="n">
         <v>4</v>
@@ -7063,10 +7063,10 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B478" t="n">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="C478" t="n">
         <v>4</v>
@@ -7077,7 +7077,7 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="B479" t="n">
         <v>188</v>
@@ -7091,7 +7091,7 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="B480" t="n">
         <v>188</v>
@@ -7105,7 +7105,7 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B481" t="n">
         <v>188</v>
@@ -7119,7 +7119,7 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="B482" t="n">
         <v>188</v>
@@ -7133,10 +7133,10 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B483" t="n">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="C483" t="n">
         <v>4</v>
@@ -7147,10 +7147,10 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="B484" t="n">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="C484" t="n">
         <v>4</v>
@@ -7161,10 +7161,10 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="B485" t="n">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="C485" t="n">
         <v>4</v>
@@ -7175,7 +7175,7 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B486" t="n">
         <v>188</v>
@@ -7189,7 +7189,7 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B487" t="n">
         <v>188</v>
@@ -7203,7 +7203,7 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B488" t="n">
         <v>188</v>
@@ -7217,10 +7217,10 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B489" t="n">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="C489" t="n">
         <v>4</v>
@@ -7231,10 +7231,10 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B490" t="n">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="C490" t="n">
         <v>4</v>
@@ -7245,10 +7245,10 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="B491" t="n">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="C491" t="n">
         <v>4</v>
@@ -7259,7 +7259,7 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B492" t="n">
         <v>188</v>
@@ -7273,10 +7273,10 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="B493" t="n">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C493" t="n">
         <v>4</v>
@@ -7287,7 +7287,7 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="B494" t="n">
         <v>188</v>
@@ -7301,7 +7301,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="B495" t="n">
         <v>188</v>
@@ -7315,10 +7315,10 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B496" t="n">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="C496" t="n">
         <v>4</v>
@@ -7329,7 +7329,7 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="B497" t="n">
         <v>188</v>
@@ -7343,10 +7343,10 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="B498" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C498" t="n">
         <v>4</v>
@@ -7357,10 +7357,10 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="B499" t="n">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="C499" t="n">
         <v>4</v>
@@ -7371,7 +7371,7 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B500" t="n">
         <v>188</v>
@@ -7385,7 +7385,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="B501" t="n">
         <v>188</v>
@@ -7399,7 +7399,7 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B502" t="n">
         <v>188</v>
@@ -7413,10 +7413,10 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="B503" t="n">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C503" t="n">
         <v>4</v>
@@ -7427,10 +7427,10 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B504" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C504" t="n">
         <v>4</v>
@@ -7441,7 +7441,7 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B505" t="n">
         <v>188</v>
@@ -7455,7 +7455,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="B506" t="n">
         <v>188</v>
@@ -7469,7 +7469,7 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B507" t="n">
         <v>188</v>
@@ -7483,7 +7483,7 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="B508" t="n">
         <v>188</v>
@@ -7497,7 +7497,7 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="B509" t="n">
         <v>188</v>
@@ -7511,7 +7511,7 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="B510" t="n">
         <v>188</v>
@@ -7525,7 +7525,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="B511" t="n">
         <v>188</v>
@@ -7539,7 +7539,7 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="B512" t="n">
         <v>188</v>
@@ -7553,7 +7553,7 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="B513" t="n">
         <v>188</v>
@@ -7567,7 +7567,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="B514" t="n">
         <v>188</v>
@@ -7581,10 +7581,10 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="B515" t="n">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="C515" t="n">
         <v>4</v>
@@ -7595,10 +7595,10 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B516" t="n">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="C516" t="n">
         <v>4</v>
@@ -7609,10 +7609,10 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B517" t="n">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="C517" t="n">
         <v>4</v>
@@ -7623,7 +7623,7 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B518" t="n">
         <v>188</v>
@@ -7637,10 +7637,10 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B519" t="n">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="C519" t="n">
         <v>4</v>
@@ -7651,10 +7651,10 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="B520" t="n">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C520" t="n">
         <v>4</v>
@@ -7665,7 +7665,7 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="B521" t="n">
         <v>188</v>
@@ -7679,7 +7679,7 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B522" t="n">
         <v>172</v>
@@ -7693,7 +7693,7 @@
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B523" t="n">
         <v>172</v>
@@ -7707,10 +7707,10 @@
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="B524" t="n">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="C524" t="n">
         <v>5</v>
@@ -7721,10 +7721,10 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="B525" t="n">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C525" t="n">
         <v>5</v>
@@ -7735,10 +7735,10 @@
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B526" t="n">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C526" t="n">
         <v>5</v>
@@ -7749,7 +7749,7 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="B527" t="n">
         <v>172</v>
@@ -7763,10 +7763,10 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B528" t="n">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="C528" t="n">
         <v>5</v>
@@ -7777,7 +7777,7 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="B529" t="n">
         <v>172</v>
@@ -7791,7 +7791,7 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="B530" t="n">
         <v>172</v>
@@ -7805,7 +7805,7 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="B531" t="n">
         <v>172</v>
@@ -7819,10 +7819,10 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B532" t="n">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C532" t="n">
         <v>5</v>
@@ -7833,7 +7833,7 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B533" t="n">
         <v>172</v>
@@ -7847,10 +7847,10 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B534" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C534" t="n">
         <v>5</v>
@@ -7861,7 +7861,7 @@
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="B535" t="n">
         <v>172</v>
@@ -7875,10 +7875,10 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="B536" t="n">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="C536" t="n">
         <v>5</v>
@@ -7889,7 +7889,7 @@
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B537" t="n">
         <v>172</v>
@@ -7903,7 +7903,7 @@
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="B538" t="n">
         <v>172</v>
@@ -7917,7 +7917,7 @@
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B539" t="n">
         <v>172</v>
@@ -7931,10 +7931,10 @@
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B540" t="n">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="C540" t="n">
         <v>5</v>
@@ -7945,10 +7945,10 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="B541" t="n">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="C541" t="n">
         <v>5</v>
@@ -7959,10 +7959,10 @@
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B542" t="n">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C542" t="n">
         <v>5</v>
@@ -7973,7 +7973,7 @@
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="B543" t="n">
         <v>172</v>
@@ -7987,7 +7987,7 @@
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="B544" t="n">
         <v>172</v>
@@ -8001,7 +8001,7 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B545" t="n">
         <v>172</v>
@@ -8015,10 +8015,10 @@
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B546" t="n">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C546" t="n">
         <v>5</v>
@@ -8029,7 +8029,7 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B547" t="n">
         <v>172</v>
@@ -8043,7 +8043,7 @@
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="B548" t="n">
         <v>172</v>
@@ -8057,7 +8057,7 @@
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="B549" t="n">
         <v>172</v>
@@ -8071,7 +8071,7 @@
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="B550" t="n">
         <v>172</v>
@@ -8085,7 +8085,7 @@
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B551" t="n">
         <v>172</v>
@@ -8099,10 +8099,10 @@
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="B552" t="n">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="C552" t="n">
         <v>5</v>
@@ -8113,7 +8113,7 @@
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B553" t="n">
         <v>172</v>
@@ -8127,10 +8127,10 @@
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="B554" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C554" t="n">
         <v>5</v>
@@ -8141,10 +8141,10 @@
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="B555" t="n">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C555" t="n">
         <v>5</v>
@@ -8155,7 +8155,7 @@
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B556" t="n">
         <v>172</v>
@@ -8169,7 +8169,7 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B557" t="n">
         <v>172</v>
@@ -8183,7 +8183,7 @@
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="B558" t="n">
         <v>172</v>
@@ -8197,7 +8197,7 @@
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="B559" t="n">
         <v>172</v>
@@ -8211,7 +8211,7 @@
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="B560" t="n">
         <v>172</v>
@@ -8225,10 +8225,10 @@
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="B561" t="n">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="C561" t="n">
         <v>5</v>
@@ -8239,10 +8239,10 @@
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="B562" t="n">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="C562" t="n">
         <v>5</v>
@@ -8253,7 +8253,7 @@
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="B563" t="n">
         <v>172</v>
@@ -8267,10 +8267,10 @@
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="B564" t="n">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="C564" t="n">
         <v>5</v>
@@ -8281,7 +8281,7 @@
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B565" t="n">
         <v>172</v>
@@ -8295,10 +8295,10 @@
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="B566" t="n">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="C566" t="n">
         <v>5</v>
@@ -8309,10 +8309,10 @@
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="B567" t="n">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="C567" t="n">
         <v>5</v>
@@ -8323,10 +8323,10 @@
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B568" t="n">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C568" t="n">
         <v>5</v>
@@ -8337,7 +8337,7 @@
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B569" t="n">
         <v>172</v>
@@ -8351,7 +8351,7 @@
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="B570" t="n">
         <v>172</v>
@@ -8365,7 +8365,7 @@
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="B571" t="n">
         <v>172</v>
@@ -8379,10 +8379,10 @@
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="B572" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="C572" t="n">
         <v>5</v>
@@ -8393,10 +8393,10 @@
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B573" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C573" t="n">
         <v>5</v>
@@ -8407,7 +8407,7 @@
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="B574" t="n">
         <v>172</v>
@@ -8421,7 +8421,7 @@
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="B575" t="n">
         <v>172</v>
@@ -8435,7 +8435,7 @@
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B576" t="n">
         <v>172</v>
@@ -8449,10 +8449,10 @@
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B577" t="n">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="C577" t="n">
         <v>5</v>
@@ -8463,7 +8463,7 @@
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B578" t="n">
         <v>172</v>
@@ -8477,7 +8477,7 @@
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B579" t="n">
         <v>172</v>
@@ -8491,7 +8491,7 @@
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="B580" t="n">
         <v>172</v>
@@ -8505,7 +8505,7 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B581" t="n">
         <v>172</v>
@@ -8519,10 +8519,10 @@
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="B582" t="n">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C582" t="n">
         <v>5</v>
@@ -8533,7 +8533,7 @@
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="B583" t="n">
         <v>172</v>
@@ -8547,7 +8547,7 @@
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B584" t="n">
         <v>172</v>
@@ -8561,10 +8561,10 @@
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="B585" t="n">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C585" t="n">
         <v>5</v>
@@ -8575,7 +8575,7 @@
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="B586" t="n">
         <v>172</v>
@@ -8589,10 +8589,10 @@
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="B587" t="n">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="C587" t="n">
         <v>5</v>
@@ -8603,10 +8603,10 @@
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="B588" t="n">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="C588" t="n">
         <v>5</v>
@@ -8617,7 +8617,7 @@
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B589" t="n">
         <v>172</v>
@@ -8631,10 +8631,10 @@
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="B590" t="n">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="C590" t="n">
         <v>5</v>
@@ -8645,10 +8645,10 @@
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B591" t="n">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C591" t="n">
         <v>5</v>
@@ -8659,10 +8659,10 @@
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B592" t="n">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="C592" t="n">
         <v>5</v>
@@ -8673,10 +8673,10 @@
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B593" t="n">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="C593" t="n">
         <v>5</v>
@@ -8687,10 +8687,10 @@
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="B594" t="n">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C594" t="n">
         <v>5</v>
@@ -8701,10 +8701,10 @@
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B595" t="n">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C595" t="n">
         <v>5</v>
@@ -8715,10 +8715,10 @@
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B596" t="n">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="C596" t="n">
         <v>5</v>
@@ -8729,7 +8729,7 @@
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B597" t="n">
         <v>172</v>
@@ -8743,7 +8743,7 @@
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="B598" t="n">
         <v>172</v>
@@ -8757,10 +8757,10 @@
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B599" t="n">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C599" t="n">
         <v>5</v>
@@ -8771,7 +8771,7 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B600" t="n">
         <v>172</v>
@@ -8785,7 +8785,7 @@
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="B601" t="n">
         <v>172</v>
@@ -8799,7 +8799,7 @@
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B602" t="n">
         <v>172</v>
@@ -8813,10 +8813,10 @@
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="B603" t="n">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C603" t="n">
         <v>5</v>
@@ -8827,10 +8827,10 @@
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B604" t="n">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C604" t="n">
         <v>5</v>
@@ -8841,10 +8841,10 @@
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="B605" t="n">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C605" t="n">
         <v>5</v>
@@ -8855,10 +8855,10 @@
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="B606" t="n">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C606" t="n">
         <v>5</v>
@@ -8869,7 +8869,7 @@
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B607" t="n">
         <v>172</v>
@@ -8883,7 +8883,7 @@
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B608" t="n">
         <v>172</v>
@@ -8897,10 +8897,10 @@
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B609" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C609" t="n">
         <v>5</v>
@@ -8911,7 +8911,7 @@
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="B610" t="n">
         <v>172</v>
@@ -8925,7 +8925,7 @@
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B611" t="n">
         <v>172</v>
@@ -8939,7 +8939,7 @@
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B612" t="n">
         <v>172</v>
@@ -8953,10 +8953,10 @@
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B613" t="n">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="C613" t="n">
         <v>5</v>
@@ -8967,10 +8967,10 @@
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="B614" t="n">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C614" t="n">
         <v>5</v>
@@ -8981,7 +8981,7 @@
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="B615" t="n">
         <v>172</v>
@@ -8995,10 +8995,10 @@
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="B616" t="n">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="C616" t="n">
         <v>5</v>
@@ -9009,7 +9009,7 @@
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="B617" t="n">
         <v>172</v>
@@ -9023,10 +9023,10 @@
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B618" t="n">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C618" t="n">
         <v>5</v>
@@ -9037,7 +9037,7 @@
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="B619" t="n">
         <v>172</v>
@@ -9051,10 +9051,10 @@
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="B620" t="n">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="C620" t="n">
         <v>5</v>
@@ -9065,10 +9065,10 @@
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B621" t="n">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="C621" t="n">
         <v>5</v>
@@ -9079,10 +9079,10 @@
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B622" t="n">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="C622" t="n">
         <v>5</v>
@@ -9093,10 +9093,10 @@
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B623" t="n">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="C623" t="n">
         <v>5</v>
@@ -9107,10 +9107,10 @@
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B624" t="n">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C624" t="n">
         <v>5</v>
@@ -9121,7 +9121,7 @@
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B625" t="n">
         <v>172</v>
@@ -9135,7 +9135,7 @@
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B626" t="n">
         <v>172</v>
@@ -9149,7 +9149,7 @@
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B627" t="n">
         <v>172</v>
@@ -9163,7 +9163,7 @@
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B628" t="n">
         <v>172</v>
@@ -9177,7 +9177,7 @@
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="B629" t="n">
         <v>172</v>
@@ -9191,10 +9191,10 @@
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="B630" t="n">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="C630" t="n">
         <v>5</v>
@@ -9205,7 +9205,7 @@
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B631" t="n">
         <v>172</v>
@@ -9219,10 +9219,10 @@
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B632" t="n">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="C632" t="n">
         <v>5</v>
@@ -9233,7 +9233,7 @@
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B633" t="n">
         <v>172</v>
@@ -9247,7 +9247,7 @@
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="B634" t="n">
         <v>172</v>
@@ -9261,7 +9261,7 @@
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="B635" t="n">
         <v>172</v>
@@ -9275,10 +9275,10 @@
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="B636" t="n">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="C636" t="n">
         <v>5</v>
@@ -9289,7 +9289,7 @@
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B637" t="n">
         <v>172</v>
@@ -9303,7 +9303,7 @@
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="B638" t="n">
         <v>172</v>
@@ -9317,7 +9317,7 @@
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="B639" t="n">
         <v>172</v>
@@ -9331,7 +9331,7 @@
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B640" t="n">
         <v>172</v>
@@ -9345,7 +9345,7 @@
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="B641" t="n">
         <v>172</v>
@@ -9359,10 +9359,10 @@
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="B642" t="n">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="C642" t="n">
         <v>5</v>
@@ -9373,7 +9373,7 @@
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="B643" t="n">
         <v>172</v>
@@ -9387,7 +9387,7 @@
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B644" t="n">
         <v>172</v>
@@ -9401,10 +9401,10 @@
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B645" t="n">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="C645" t="n">
         <v>5</v>
@@ -9415,10 +9415,10 @@
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B646" t="n">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="C646" t="n">
         <v>5</v>
@@ -9429,7 +9429,7 @@
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="B647" t="n">
         <v>172</v>
@@ -9443,7 +9443,7 @@
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B648" t="n">
         <v>172</v>
@@ -9457,10 +9457,10 @@
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="B649" t="n">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C649" t="n">
         <v>5</v>
@@ -9471,10 +9471,10 @@
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B650" t="n">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="C650" t="n">
         <v>5</v>
@@ -9485,10 +9485,10 @@
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="B651" t="n">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="C651" t="n">
         <v>6</v>
@@ -9499,7 +9499,7 @@
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="B652" t="n">
         <v>156</v>
@@ -9513,10 +9513,10 @@
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B653" t="n">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C653" t="n">
         <v>6</v>
@@ -9527,10 +9527,10 @@
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="B654" t="n">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="C654" t="n">
         <v>6</v>
@@ -9541,7 +9541,7 @@
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="B655" t="n">
         <v>156</v>
@@ -9555,10 +9555,10 @@
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B656" t="n">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C656" t="n">
         <v>6</v>
@@ -9569,7 +9569,7 @@
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="B657" t="n">
         <v>156</v>
@@ -9583,7 +9583,7 @@
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="B658" t="n">
         <v>156</v>
@@ -9597,10 +9597,10 @@
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="B659" t="n">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C659" t="n">
         <v>6</v>
@@ -9611,10 +9611,10 @@
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B660" t="n">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="C660" t="n">
         <v>6</v>
@@ -9625,7 +9625,7 @@
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="B661" t="n">
         <v>156</v>
@@ -9639,7 +9639,7 @@
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="B662" t="n">
         <v>156</v>
@@ -9653,7 +9653,7 @@
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="B663" t="n">
         <v>156</v>
@@ -9667,10 +9667,10 @@
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B664" t="n">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="C664" t="n">
         <v>6</v>
@@ -9681,7 +9681,7 @@
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B665" t="n">
         <v>156</v>
@@ -9695,7 +9695,7 @@
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="B666" t="n">
         <v>156</v>
@@ -9709,7 +9709,7 @@
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B667" t="n">
         <v>156</v>
@@ -9723,7 +9723,7 @@
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="B668" t="n">
         <v>156</v>
@@ -9737,10 +9737,10 @@
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="B669" t="n">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C669" t="n">
         <v>6</v>
@@ -9751,7 +9751,7 @@
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="B670" t="n">
         <v>156</v>
@@ -9765,10 +9765,10 @@
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B671" t="n">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C671" t="n">
         <v>6</v>
@@ -9779,10 +9779,10 @@
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="B672" t="n">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="C672" t="n">
         <v>6</v>
@@ -9793,7 +9793,7 @@
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B673" t="n">
         <v>156</v>
@@ -9807,10 +9807,10 @@
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B674" t="n">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="C674" t="n">
         <v>6</v>
@@ -9821,10 +9821,10 @@
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="B675" t="n">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="C675" t="n">
         <v>6</v>
@@ -9835,10 +9835,10 @@
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B676" t="n">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="C676" t="n">
         <v>6</v>
@@ -9849,10 +9849,10 @@
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="B677" t="n">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C677" t="n">
         <v>6</v>
@@ -9863,7 +9863,7 @@
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B678" t="n">
         <v>156</v>
@@ -9877,7 +9877,7 @@
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="B679" t="n">
         <v>156</v>
@@ -9891,7 +9891,7 @@
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="B680" t="n">
         <v>156</v>
@@ -9905,7 +9905,7 @@
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B681" t="n">
         <v>156</v>
@@ -9919,7 +9919,7 @@
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="B682" t="n">
         <v>156</v>
@@ -9933,7 +9933,7 @@
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B683" t="n">
         <v>156</v>
@@ -9947,7 +9947,7 @@
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B684" t="n">
         <v>156</v>
@@ -9961,7 +9961,7 @@
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="B685" t="n">
         <v>156</v>
@@ -9975,10 +9975,10 @@
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="B686" t="n">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C686" t="n">
         <v>6</v>
@@ -9989,7 +9989,7 @@
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B687" t="n">
         <v>156</v>
@@ -10003,7 +10003,7 @@
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B688" t="n">
         <v>156</v>
@@ -10017,10 +10017,10 @@
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B689" t="n">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="C689" t="n">
         <v>6</v>
@@ -10031,10 +10031,10 @@
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="B690" t="n">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C690" t="n">
         <v>6</v>
@@ -10045,10 +10045,10 @@
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="B691" t="n">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C691" t="n">
         <v>6</v>
@@ -10059,7 +10059,7 @@
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="B692" t="n">
         <v>156</v>
@@ -10073,7 +10073,7 @@
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="B693" t="n">
         <v>156</v>
@@ -10087,7 +10087,7 @@
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B694" t="n">
         <v>156</v>
@@ -10101,7 +10101,7 @@
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B695" t="n">
         <v>156</v>
@@ -10115,7 +10115,7 @@
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="B696" t="n">
         <v>30</v>
@@ -10129,7 +10129,7 @@
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B697" t="n">
         <v>156</v>
@@ -10143,7 +10143,7 @@
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B698" t="n">
         <v>156</v>
@@ -10157,10 +10157,10 @@
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B699" t="n">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="C699" t="n">
         <v>6</v>
@@ -10171,10 +10171,10 @@
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B700" t="n">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="C700" t="n">
         <v>6</v>
@@ -10185,10 +10185,10 @@
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B701" t="n">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="C701" t="n">
         <v>6</v>
@@ -10199,10 +10199,10 @@
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="B702" t="n">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C702" t="n">
         <v>6</v>
@@ -10213,10 +10213,10 @@
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B703" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="C703" t="n">
         <v>6</v>
@@ -10227,7 +10227,7 @@
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="B704" t="n">
         <v>156</v>
@@ -10241,7 +10241,7 @@
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B705" t="n">
         <v>156</v>
@@ -10255,10 +10255,10 @@
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="B706" t="n">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C706" t="n">
         <v>6</v>
@@ -10269,7 +10269,7 @@
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B707" t="n">
         <v>156</v>
@@ -10283,7 +10283,7 @@
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B708" t="n">
         <v>156</v>
@@ -10297,7 +10297,7 @@
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B709" t="n">
         <v>156</v>
@@ -10311,10 +10311,10 @@
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="B710" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C710" t="n">
         <v>6</v>
@@ -10325,7 +10325,7 @@
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B711" t="n">
         <v>91</v>
@@ -10339,10 +10339,10 @@
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="B712" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C712" t="n">
         <v>6</v>
@@ -10353,7 +10353,7 @@
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="B713" t="n">
         <v>156</v>
@@ -10367,10 +10367,10 @@
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="B714" t="n">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C714" t="n">
         <v>6</v>
@@ -10381,10 +10381,10 @@
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="B715" t="n">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C715" t="n">
         <v>6</v>
@@ -10395,7 +10395,7 @@
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="B716" t="n">
         <v>156</v>
@@ -10409,10 +10409,10 @@
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B717" t="n">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C717" t="n">
         <v>6</v>
@@ -10423,7 +10423,7 @@
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B718" t="n">
         <v>156</v>
@@ -10437,10 +10437,10 @@
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="B719" t="n">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C719" t="n">
         <v>6</v>
@@ -10451,10 +10451,10 @@
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B720" t="n">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C720" t="n">
         <v>6</v>
@@ -10465,10 +10465,10 @@
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="B721" t="n">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="C721" t="n">
         <v>6</v>
@@ -10479,10 +10479,10 @@
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="B722" t="n">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="C722" t="n">
         <v>6</v>
@@ -10493,10 +10493,10 @@
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B723" t="n">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="C723" t="n">
         <v>6</v>
@@ -10507,7 +10507,7 @@
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B724" t="n">
         <v>156</v>
@@ -10521,10 +10521,10 @@
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="B725" t="n">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="C725" t="n">
         <v>6</v>
@@ -10535,7 +10535,7 @@
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B726" t="n">
         <v>156</v>
@@ -10549,7 +10549,7 @@
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="B727" t="n">
         <v>156</v>
@@ -10563,7 +10563,7 @@
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B728" t="n">
         <v>156</v>
@@ -10577,7 +10577,7 @@
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B729" t="n">
         <v>156</v>
@@ -10591,10 +10591,10 @@
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="B730" t="n">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="C730" t="n">
         <v>6</v>
@@ -10605,7 +10605,7 @@
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B731" t="n">
         <v>156</v>
@@ -10619,7 +10619,7 @@
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B732" t="n">
         <v>156</v>
@@ -10633,7 +10633,7 @@
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="B733" t="n">
         <v>156</v>
@@ -10647,7 +10647,7 @@
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="B734" t="n">
         <v>156</v>
@@ -10661,10 +10661,10 @@
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="B735" t="n">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C735" t="n">
         <v>6</v>
@@ -10675,7 +10675,7 @@
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B736" t="n">
         <v>156</v>
@@ -10689,10 +10689,10 @@
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B737" t="n">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C737" t="n">
         <v>6</v>
@@ -10703,7 +10703,7 @@
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B738" t="n">
         <v>156</v>
@@ -10717,10 +10717,10 @@
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="B739" t="n">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="C739" t="n">
         <v>6</v>
@@ -10731,10 +10731,10 @@
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="B740" t="n">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C740" t="n">
         <v>6</v>
@@ -10745,10 +10745,10 @@
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B741" t="n">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C741" t="n">
         <v>6</v>
@@ -10759,7 +10759,7 @@
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B742" t="n">
         <v>156</v>
@@ -10773,7 +10773,7 @@
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B743" t="n">
         <v>156</v>
@@ -10787,7 +10787,7 @@
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="B744" t="n">
         <v>156</v>
@@ -10801,7 +10801,7 @@
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B745" t="n">
         <v>156</v>
@@ -10815,7 +10815,7 @@
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B746" t="n">
         <v>156</v>
@@ -10843,7 +10843,7 @@
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="B748" t="n">
         <v>156</v>
@@ -10857,7 +10857,7 @@
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="B749" t="n">
         <v>156</v>
@@ -10871,10 +10871,10 @@
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B750" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C750" t="n">
         <v>6</v>
@@ -10885,7 +10885,7 @@
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B751" t="n">
         <v>156</v>
@@ -10899,10 +10899,10 @@
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B752" t="n">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="C752" t="n">
         <v>6</v>
@@ -10913,10 +10913,10 @@
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B753" t="n">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="C753" t="n">
         <v>6</v>
@@ -10927,10 +10927,10 @@
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B754" t="n">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C754" t="n">
         <v>6</v>
@@ -10941,10 +10941,10 @@
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B755" t="n">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C755" t="n">
         <v>6</v>
@@ -10955,10 +10955,10 @@
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B756" t="n">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C756" t="n">
         <v>6</v>
@@ -10969,7 +10969,7 @@
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B757" t="n">
         <v>156</v>
@@ -10983,7 +10983,7 @@
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B758" t="n">
         <v>156</v>
@@ -10997,7 +10997,7 @@
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="B759" t="n">
         <v>156</v>
@@ -11011,10 +11011,10 @@
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="B760" t="n">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="C760" t="n">
         <v>6</v>
@@ -11025,7 +11025,7 @@
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="B761" t="n">
         <v>156</v>
@@ -11039,7 +11039,7 @@
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="B762" t="n">
         <v>156</v>
@@ -11053,10 +11053,10 @@
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="B763" t="n">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C763" t="n">
         <v>6</v>
@@ -11067,7 +11067,7 @@
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="B764" t="n">
         <v>156</v>
@@ -11081,7 +11081,7 @@
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="B765" t="n">
         <v>156</v>
@@ -11095,10 +11095,10 @@
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B766" t="n">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="C766" t="n">
         <v>6</v>
@@ -11109,7 +11109,7 @@
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="B767" t="n">
         <v>156</v>
@@ -11123,7 +11123,7 @@
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="B768" t="n">
         <v>156</v>
@@ -11137,7 +11137,7 @@
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B769" t="n">
         <v>156</v>
@@ -11151,10 +11151,10 @@
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B770" t="n">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C770" t="n">
         <v>6</v>
@@ -11165,7 +11165,7 @@
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B771" t="n">
         <v>156</v>
@@ -11179,10 +11179,10 @@
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="B772" t="n">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C772" t="n">
         <v>6</v>
@@ -11193,10 +11193,10 @@
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B773" t="n">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="C773" t="n">
         <v>6</v>
@@ -11207,10 +11207,10 @@
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B774" t="n">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C774" t="n">
         <v>6</v>
@@ -11221,10 +11221,10 @@
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="B775" t="n">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="C775" t="n">
         <v>6</v>
@@ -11235,7 +11235,7 @@
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="B776" t="n">
         <v>156</v>
@@ -11249,7 +11249,7 @@
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="B777" t="n">
         <v>156</v>
@@ -11263,7 +11263,7 @@
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="B778" t="n">
         <v>156</v>
@@ -11277,7 +11277,7 @@
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B779" t="n">
         <v>140</v>
@@ -11291,10 +11291,10 @@
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B780" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="C780" t="n">
         <v>7</v>
@@ -11305,7 +11305,7 @@
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B781" t="n">
         <v>140</v>
@@ -11319,7 +11319,7 @@
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="B782" t="n">
         <v>140</v>
@@ -11333,7 +11333,7 @@
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B783" t="n">
         <v>140</v>
@@ -11347,7 +11347,7 @@
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="B784" t="n">
         <v>140</v>
@@ -11361,10 +11361,10 @@
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="B785" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C785" t="n">
         <v>7</v>
@@ -11375,7 +11375,7 @@
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="B786" t="n">
         <v>140</v>
@@ -11389,10 +11389,10 @@
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B787" t="n">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="C787" t="n">
         <v>7</v>
@@ -11403,7 +11403,7 @@
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="B788" t="n">
         <v>140</v>
@@ -11417,7 +11417,7 @@
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="B789" t="n">
         <v>140</v>
@@ -11431,10 +11431,10 @@
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="B790" t="n">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C790" t="n">
         <v>7</v>
@@ -11445,10 +11445,10 @@
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="B791" t="n">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="C791" t="n">
         <v>7</v>
@@ -11459,10 +11459,10 @@
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="B792" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C792" t="n">
         <v>7</v>
@@ -11473,7 +11473,7 @@
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="B793" t="n">
         <v>140</v>
@@ -11487,10 +11487,10 @@
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="B794" t="n">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C794" t="n">
         <v>7</v>
@@ -11501,7 +11501,7 @@
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B795" t="n">
         <v>140</v>
@@ -11515,7 +11515,7 @@
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="B796" t="n">
         <v>140</v>
@@ -11529,7 +11529,7 @@
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B797" t="n">
         <v>140</v>
@@ -11543,10 +11543,10 @@
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="B798" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="C798" t="n">
         <v>7</v>
@@ -11557,7 +11557,7 @@
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B799" t="n">
         <v>140</v>
@@ -11571,10 +11571,10 @@
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="B800" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="C800" t="n">
         <v>7</v>
@@ -11585,10 +11585,10 @@
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="B801" t="n">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="C801" t="n">
         <v>7</v>
@@ -11599,7 +11599,7 @@
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="B802" t="n">
         <v>140</v>
@@ -11613,7 +11613,7 @@
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B803" t="n">
         <v>140</v>
@@ -11627,10 +11627,10 @@
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B804" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C804" t="n">
         <v>7</v>
@@ -11641,10 +11641,10 @@
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B805" t="n">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="C805" t="n">
         <v>7</v>
@@ -11655,7 +11655,7 @@
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B806" t="n">
         <v>140</v>
@@ -11669,7 +11669,7 @@
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="B807" t="n">
         <v>140</v>
@@ -11683,7 +11683,7 @@
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B808" t="n">
         <v>140</v>
@@ -11697,7 +11697,7 @@
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B809" t="n">
         <v>140</v>
@@ -11711,10 +11711,10 @@
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="B810" t="n">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C810" t="n">
         <v>7</v>
@@ -11725,7 +11725,7 @@
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B811" t="n">
         <v>140</v>
@@ -11739,7 +11739,7 @@
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="B812" t="n">
         <v>140</v>
@@ -11753,7 +11753,7 @@
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B813" t="n">
         <v>140</v>
@@ -11767,7 +11767,7 @@
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="B814" t="n">
         <v>140</v>
@@ -11781,7 +11781,7 @@
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="B815" t="n">
         <v>140</v>
@@ -11795,7 +11795,7 @@
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B816" t="n">
         <v>140</v>
@@ -11809,10 +11809,10 @@
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B817" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="C817" t="n">
         <v>7</v>
@@ -11823,7 +11823,7 @@
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B818" t="n">
         <v>140</v>
@@ -11837,7 +11837,7 @@
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B819" t="n">
         <v>140</v>
@@ -11851,7 +11851,7 @@
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B820" t="n">
         <v>140</v>
@@ -11865,7 +11865,7 @@
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B821" t="n">
         <v>140</v>
@@ -11879,10 +11879,10 @@
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="B822" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C822" t="n">
         <v>7</v>
@@ -11893,7 +11893,7 @@
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="B823" t="n">
         <v>140</v>
@@ -11907,7 +11907,7 @@
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B824" t="n">
         <v>140</v>
@@ -11921,10 +11921,10 @@
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B825" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C825" t="n">
         <v>7</v>
@@ -11935,7 +11935,7 @@
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="B826" t="n">
         <v>140</v>
@@ -11949,7 +11949,7 @@
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="B827" t="n">
         <v>140</v>
@@ -11963,7 +11963,7 @@
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="B828" t="n">
         <v>140</v>
@@ -11977,10 +11977,10 @@
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B829" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="C829" t="n">
         <v>7</v>
@@ -11991,7 +11991,7 @@
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B830" t="n">
         <v>140</v>
@@ -12005,7 +12005,7 @@
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B831" t="n">
         <v>140</v>
@@ -12019,7 +12019,7 @@
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="B832" t="n">
         <v>140</v>
@@ -12033,10 +12033,10 @@
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B833" t="n">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C833" t="n">
         <v>7</v>
@@ -12047,7 +12047,7 @@
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="B834" t="n">
         <v>140</v>
@@ -12061,7 +12061,7 @@
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B835" t="n">
         <v>140</v>
@@ -12075,7 +12075,7 @@
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B836" t="n">
         <v>140</v>
@@ -12089,7 +12089,7 @@
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="B837" t="n">
         <v>140</v>
@@ -12103,7 +12103,7 @@
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B838" t="n">
         <v>140</v>
@@ -12117,7 +12117,7 @@
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B839" t="n">
         <v>140</v>
@@ -12131,7 +12131,7 @@
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="B840" t="n">
         <v>140</v>
@@ -12145,7 +12145,7 @@
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="B841" t="n">
         <v>140</v>
@@ -12159,7 +12159,7 @@
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="B842" t="n">
         <v>140</v>
@@ -12173,10 +12173,10 @@
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B843" t="n">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="C843" t="n">
         <v>7</v>
@@ -12187,7 +12187,7 @@
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="B844" t="n">
         <v>140</v>
@@ -12201,7 +12201,7 @@
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B845" t="n">
         <v>140</v>
@@ -12215,7 +12215,7 @@
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="B846" t="n">
         <v>140</v>
@@ -12229,10 +12229,10 @@
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="B847" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C847" t="n">
         <v>7</v>
@@ -12243,7 +12243,7 @@
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="B848" t="n">
         <v>140</v>
@@ -12257,7 +12257,7 @@
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="B849" t="n">
         <v>140</v>
@@ -12271,10 +12271,10 @@
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B850" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C850" t="n">
         <v>7</v>
@@ -12285,7 +12285,7 @@
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="B851" t="n">
         <v>140</v>
@@ -12299,7 +12299,7 @@
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B852" t="n">
         <v>140</v>
@@ -12313,10 +12313,10 @@
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="B853" t="n">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C853" t="n">
         <v>7</v>
@@ -12327,7 +12327,7 @@
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B854" t="n">
         <v>140</v>
@@ -12341,7 +12341,7 @@
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B855" t="n">
         <v>140</v>
@@ -12355,7 +12355,7 @@
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="B856" t="n">
         <v>140</v>
@@ -12369,7 +12369,7 @@
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="B857" t="n">
         <v>140</v>
@@ -12383,7 +12383,7 @@
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B858" t="n">
         <v>140</v>
@@ -12397,10 +12397,10 @@
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="B859" t="n">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C859" t="n">
         <v>7</v>
@@ -12411,7 +12411,7 @@
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="B860" t="n">
         <v>140</v>
@@ -12425,10 +12425,10 @@
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B861" t="n">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="C861" t="n">
         <v>7</v>
@@ -12439,7 +12439,7 @@
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B862" t="n">
         <v>140</v>
@@ -12453,10 +12453,10 @@
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="B863" t="n">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="C863" t="n">
         <v>7</v>
@@ -12467,7 +12467,7 @@
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="B864" t="n">
         <v>140</v>
@@ -12481,7 +12481,7 @@
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="B865" t="n">
         <v>140</v>
@@ -12495,7 +12495,7 @@
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B866" t="n">
         <v>140</v>
@@ -12509,10 +12509,10 @@
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="B867" t="n">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C867" t="n">
         <v>7</v>
@@ -12523,7 +12523,7 @@
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B868" t="n">
         <v>140</v>
@@ -12537,7 +12537,7 @@
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B869" t="n">
         <v>140</v>
@@ -12551,7 +12551,7 @@
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="B870" t="n">
         <v>140</v>
@@ -12565,7 +12565,7 @@
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B871" t="n">
         <v>140</v>
@@ -12579,10 +12579,10 @@
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="B872" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C872" t="n">
         <v>7</v>
@@ -12593,7 +12593,7 @@
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B873" t="n">
         <v>140</v>
@@ -12607,7 +12607,7 @@
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="B874" t="n">
         <v>140</v>
@@ -12621,7 +12621,7 @@
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B875" t="n">
         <v>140</v>
@@ -12635,7 +12635,7 @@
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="B876" t="n">
         <v>140</v>
@@ -12649,7 +12649,7 @@
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B877" t="n">
         <v>140</v>
@@ -12663,7 +12663,7 @@
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="B878" t="n">
         <v>140</v>
@@ -12677,10 +12677,10 @@
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B879" t="n">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="C879" t="n">
         <v>7</v>
@@ -12691,10 +12691,10 @@
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B880" t="n">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C880" t="n">
         <v>7</v>
@@ -12705,7 +12705,7 @@
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B881" t="n">
         <v>140</v>
@@ -12719,7 +12719,7 @@
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B882" t="n">
         <v>140</v>
@@ -12733,7 +12733,7 @@
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B883" t="n">
         <v>140</v>
@@ -12747,7 +12747,7 @@
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B884" t="n">
         <v>140</v>
@@ -12761,7 +12761,7 @@
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B885" t="n">
         <v>140</v>
@@ -12775,10 +12775,10 @@
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B886" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C886" t="n">
         <v>7</v>
@@ -12789,7 +12789,7 @@
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B887" t="n">
         <v>140</v>
@@ -12803,7 +12803,7 @@
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B888" t="n">
         <v>140</v>
@@ -12817,7 +12817,7 @@
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="B889" t="n">
         <v>140</v>
@@ -12831,7 +12831,7 @@
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="B890" t="n">
         <v>140</v>
@@ -12845,10 +12845,10 @@
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B891" t="n">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C891" t="n">
         <v>7</v>
